--- a/BackTest/2020-01-22 BackTest OCN.xlsx
+++ b/BackTest/2020-01-22 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>0.4779</v>
       </c>
       <c r="F2" t="n">
-        <v>5691</v>
+        <v>19091</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4782049999999991</v>
+        <v>0.4780516666666658</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0.4779</v>
       </c>
       <c r="F3" t="n">
-        <v>3848</v>
+        <v>5691</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4781916666666657</v>
+        <v>0.4782049999999991</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0.4779</v>
       </c>
       <c r="F4" t="n">
-        <v>4133</v>
+        <v>3848</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4781783333333324</v>
+        <v>0.4781916666666657</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.479</v>
+        <v>0.4779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.479</v>
+        <v>0.4779</v>
       </c>
       <c r="D5" t="n">
-        <v>0.479</v>
+        <v>0.4779</v>
       </c>
       <c r="E5" t="n">
-        <v>0.479</v>
+        <v>0.4779</v>
       </c>
       <c r="F5" t="n">
-        <v>16640.2782</v>
+        <v>4133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4783499999999991</v>
+        <v>0.4781783333333324</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.47</v>
+        <v>0.479</v>
       </c>
       <c r="C6" t="n">
-        <v>0.47</v>
+        <v>0.479</v>
       </c>
       <c r="D6" t="n">
-        <v>0.47</v>
+        <v>0.479</v>
       </c>
       <c r="E6" t="n">
-        <v>0.47</v>
+        <v>0.479</v>
       </c>
       <c r="F6" t="n">
-        <v>57033.8047</v>
+        <v>16640.2782</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4781983333333324</v>
+        <v>0.4783499999999991</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.479</v>
+        <v>0.47</v>
       </c>
       <c r="C7" t="n">
-        <v>0.479</v>
+        <v>0.47</v>
       </c>
       <c r="D7" t="n">
-        <v>0.479</v>
+        <v>0.47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.479</v>
+        <v>0.47</v>
       </c>
       <c r="F7" t="n">
-        <v>4520</v>
+        <v>57033.8047</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4781966666666658</v>
+        <v>0.4781983333333324</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0.479</v>
       </c>
       <c r="F8" t="n">
-        <v>4474</v>
+        <v>4520</v>
       </c>
       <c r="G8" t="n">
         <v>0.4781966666666658</v>
@@ -690,10 +690,10 @@
         <v>0.479</v>
       </c>
       <c r="F9" t="n">
-        <v>4835</v>
+        <v>4474</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4781933333333325</v>
+        <v>0.4781966666666658</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4784</v>
+        <v>0.479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4784</v>
+        <v>0.479</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4784</v>
+        <v>0.479</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4784</v>
+        <v>0.479</v>
       </c>
       <c r="F10" t="n">
-        <v>3876</v>
+        <v>4835</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4781799999999992</v>
+        <v>0.4781933333333325</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0.4784</v>
       </c>
       <c r="F11" t="n">
-        <v>7245</v>
+        <v>3876</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4781666666666659</v>
+        <v>0.4781799999999992</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0.4784</v>
       </c>
       <c r="F12" t="n">
-        <v>4831</v>
+        <v>7245</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4781533333333325</v>
+        <v>0.4781666666666659</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0.4784</v>
       </c>
       <c r="F13" t="n">
-        <v>6422</v>
+        <v>4831</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4781399999999992</v>
+        <v>0.4781533333333325</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4782</v>
+        <v>0.4784</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4781</v>
+        <v>0.4784</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4782</v>
+        <v>0.4784</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4781</v>
+        <v>0.4784</v>
       </c>
       <c r="F14" t="n">
-        <v>13733</v>
+        <v>6422</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4781233333333326</v>
+        <v>0.4781399999999992</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4783</v>
+        <v>0.4782</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4783</v>
+        <v>0.4781</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4783</v>
+        <v>0.4782</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4783</v>
+        <v>0.4781</v>
       </c>
       <c r="F15" t="n">
-        <v>7327</v>
+        <v>13733</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4781083333333326</v>
+        <v>0.4781233333333326</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.478</v>
+        <v>0.4783</v>
       </c>
       <c r="C16" t="n">
-        <v>0.478</v>
+        <v>0.4783</v>
       </c>
       <c r="D16" t="n">
-        <v>0.478</v>
+        <v>0.4783</v>
       </c>
       <c r="E16" t="n">
-        <v>0.478</v>
+        <v>0.4783</v>
       </c>
       <c r="F16" t="n">
-        <v>6271</v>
+        <v>7327</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4780883333333327</v>
+        <v>0.4781083333333326</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0.478</v>
       </c>
       <c r="F17" t="n">
-        <v>8662</v>
+        <v>6271</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4780683333333328</v>
+        <v>0.4780883333333327</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0.478</v>
       </c>
       <c r="F18" t="n">
-        <v>6329</v>
+        <v>8662</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4780483333333328</v>
+        <v>0.4780683333333328</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0.478</v>
       </c>
       <c r="F19" t="n">
-        <v>12642</v>
+        <v>6329</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4780283333333328</v>
+        <v>0.4780483333333328</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0.478</v>
       </c>
       <c r="F20" t="n">
-        <v>4206</v>
+        <v>12642</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4780083333333329</v>
+        <v>0.4780283333333328</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0.478</v>
       </c>
       <c r="F21" t="n">
-        <v>6406</v>
+        <v>4206</v>
       </c>
       <c r="G21" t="n">
-        <v>0.477988333333333</v>
+        <v>0.4780083333333329</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0.478</v>
       </c>
       <c r="F22" t="n">
-        <v>3754</v>
+        <v>6406</v>
       </c>
       <c r="G22" t="n">
-        <v>0.477968333333333</v>
+        <v>0.477988333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0.478</v>
       </c>
       <c r="F23" t="n">
-        <v>3698</v>
+        <v>3754</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4779499999999997</v>
+        <v>0.477968333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="C24" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="D24" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4769</v>
+        <v>0.478</v>
       </c>
       <c r="F24" t="n">
-        <v>218661</v>
+        <v>3698</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4779149999999997</v>
+        <v>0.4779499999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4778</v>
+        <v>0.477</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4784</v>
+        <v>0.477</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4784</v>
+        <v>0.477</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4778</v>
+        <v>0.4769</v>
       </c>
       <c r="F25" t="n">
-        <v>58954</v>
+        <v>218661</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4779033333333331</v>
+        <v>0.4779149999999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4783</v>
+        <v>0.4778</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4783</v>
+        <v>0.4784</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4783</v>
+        <v>0.4784</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4783</v>
+        <v>0.4778</v>
       </c>
       <c r="F26" t="n">
-        <v>8679</v>
+        <v>58954</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4778899999999998</v>
+        <v>0.4779033333333331</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4784</v>
+        <v>0.4783</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4784</v>
+        <v>0.4783</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4784</v>
+        <v>0.4783</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4784</v>
+        <v>0.4783</v>
       </c>
       <c r="F27" t="n">
-        <v>10388</v>
+        <v>8679</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4778783333333331</v>
+        <v>0.4778899999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>0.4784</v>
       </c>
       <c r="F28" t="n">
-        <v>5045</v>
+        <v>10388</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4778666666666665</v>
+        <v>0.4778783333333331</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4783</v>
+        <v>0.4784</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4783</v>
+        <v>0.4784</v>
       </c>
       <c r="F29" t="n">
-        <v>2104845</v>
+        <v>5045</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4778549999999999</v>
+        <v>0.4778666666666665</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4785</v>
+        <v>0.4783</v>
       </c>
       <c r="C30" t="n">
         <v>0.4785</v>
@@ -1422,13 +1422,13 @@
         <v>0.4785</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4785</v>
+        <v>0.4783</v>
       </c>
       <c r="F30" t="n">
-        <v>3600</v>
+        <v>2104845</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4778433333333332</v>
+        <v>0.4778549999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0.4785</v>
       </c>
       <c r="F31" t="n">
-        <v>6860</v>
+        <v>3600</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4778316666666666</v>
+        <v>0.4778433333333332</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>0.4785</v>
       </c>
       <c r="F32" t="n">
-        <v>3997</v>
+        <v>6860</v>
       </c>
       <c r="G32" t="n">
-        <v>0.47782</v>
+        <v>0.4778316666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0.4785</v>
       </c>
       <c r="F33" t="n">
-        <v>9542</v>
+        <v>3997</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4778083333333333</v>
+        <v>0.47782</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>0.4785</v>
       </c>
       <c r="F34" t="n">
-        <v>5677</v>
+        <v>9542</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4777983333333333</v>
+        <v>0.4778083333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>0.4785</v>
       </c>
       <c r="F35" t="n">
-        <v>9191</v>
+        <v>5677</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4777883333333334</v>
+        <v>0.4777983333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0.4785</v>
       </c>
       <c r="F36" t="n">
-        <v>10638</v>
+        <v>9191</v>
       </c>
       <c r="G36" t="n">
-        <v>0.47778</v>
+        <v>0.4777883333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0.4785</v>
       </c>
       <c r="F37" t="n">
-        <v>5296</v>
+        <v>10638</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4777750000000001</v>
+        <v>0.47778</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>0.4785</v>
       </c>
       <c r="F38" t="n">
-        <v>6220</v>
+        <v>5296</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4779166666666667</v>
+        <v>0.4777750000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>0.4785</v>
       </c>
       <c r="F39" t="n">
-        <v>3581</v>
+        <v>6220</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4779150000000001</v>
+        <v>0.4779166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>0.4785</v>
       </c>
       <c r="F40" t="n">
-        <v>10137</v>
+        <v>3581</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4779100000000001</v>
+        <v>0.4779150000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0.4785</v>
       </c>
       <c r="F41" t="n">
-        <v>3754</v>
+        <v>10137</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4779066666666668</v>
+        <v>0.4779100000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>0.4785</v>
       </c>
       <c r="F42" t="n">
-        <v>118294</v>
+        <v>3754</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4779016666666668</v>
+        <v>0.4779066666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>0.4785</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="E43" t="n">
         <v>0.4785</v>
       </c>
       <c r="F43" t="n">
-        <v>50000</v>
+        <v>118294</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4779100000000001</v>
+        <v>0.4779016666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="C44" t="n">
         <v>0.4792</v>
@@ -1912,13 +1912,13 @@
         <v>0.4792</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="F44" t="n">
-        <v>4860</v>
+        <v>50000</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4779166666666667</v>
+        <v>0.4779100000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>0.4792</v>
       </c>
       <c r="F45" t="n">
-        <v>4441</v>
+        <v>4860</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4779233333333334</v>
+        <v>0.4779166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0.4792</v>
       </c>
       <c r="F46" t="n">
-        <v>4590</v>
+        <v>4441</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4779316666666667</v>
+        <v>0.4779233333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>0.4792</v>
       </c>
       <c r="F47" t="n">
-        <v>4969</v>
+        <v>4590</v>
       </c>
       <c r="G47" t="n">
-        <v>0.478085</v>
+        <v>0.4779316666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0.4792</v>
       </c>
       <c r="F48" t="n">
-        <v>4075</v>
+        <v>4969</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4780916666666667</v>
+        <v>0.478085</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0.4792</v>
       </c>
       <c r="F49" t="n">
-        <v>10113</v>
+        <v>4075</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4781</v>
+        <v>0.4780916666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0.4792</v>
       </c>
       <c r="F50" t="n">
-        <v>13060</v>
+        <v>10113</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4781066666666666</v>
+        <v>0.4781</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>0.4792</v>
       </c>
       <c r="F51" t="n">
-        <v>9636</v>
+        <v>13060</v>
       </c>
       <c r="G51" t="n">
-        <v>0.478115</v>
+        <v>0.4781066666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>0.4792</v>
       </c>
       <c r="F52" t="n">
-        <v>5063</v>
+        <v>9636</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4781233333333333</v>
+        <v>0.478115</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>0.4792</v>
       </c>
       <c r="F53" t="n">
-        <v>7751</v>
+        <v>5063</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4782766666666666</v>
+        <v>0.4781233333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>0.4792</v>
       </c>
       <c r="F54" t="n">
-        <v>6309</v>
+        <v>7751</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4782833333333333</v>
+        <v>0.4782766666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>0.4792</v>
       </c>
       <c r="F55" t="n">
-        <v>89809.4875</v>
+        <v>6309</v>
       </c>
       <c r="G55" t="n">
         <v>0.4782833333333333</v>
@@ -2335,7 +2335,7 @@
         <v>0.4792</v>
       </c>
       <c r="F56" t="n">
-        <v>5642</v>
+        <v>89809.4875</v>
       </c>
       <c r="G56" t="n">
         <v>0.4782833333333333</v>
@@ -2370,10 +2370,10 @@
         <v>0.4792</v>
       </c>
       <c r="F57" t="n">
-        <v>11859</v>
+        <v>5642</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4784199999999999</v>
+        <v>0.4782833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0.4792</v>
       </c>
       <c r="F58" t="n">
-        <v>4211</v>
+        <v>11859</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4784216666666666</v>
+        <v>0.4784199999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>0.4792</v>
       </c>
       <c r="F59" t="n">
-        <v>5014</v>
+        <v>4211</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4784233333333333</v>
+        <v>0.4784216666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         <v>0.4792</v>
       </c>
       <c r="F60" t="n">
-        <v>11588</v>
+        <v>5014</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4784449999999998</v>
+        <v>0.4784233333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2510,10 +2510,10 @@
         <v>0.4792</v>
       </c>
       <c r="F61" t="n">
-        <v>12591</v>
+        <v>11588</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4784666666666665</v>
+        <v>0.4784449999999998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>0.4792</v>
       </c>
       <c r="F62" t="n">
-        <v>11185</v>
+        <v>12591</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4784883333333332</v>
+        <v>0.4784666666666665</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4709</v>
+        <v>0.4792</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4709</v>
+        <v>0.4792</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4709</v>
+        <v>0.4792</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4709</v>
+        <v>0.4792</v>
       </c>
       <c r="F63" t="n">
-        <v>99124.9357</v>
+        <v>11185</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4783716666666666</v>
+        <v>0.4784883333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4791</v>
+        <v>0.4709</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4791</v>
+        <v>0.4709</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4791</v>
+        <v>0.4709</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4791</v>
+        <v>0.4709</v>
       </c>
       <c r="F64" t="n">
-        <v>5018</v>
+        <v>99124.9357</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4783916666666665</v>
+        <v>0.4783716666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,19 +2650,23 @@
         <v>0.4791</v>
       </c>
       <c r="F65" t="n">
-        <v>4424</v>
+        <v>5018</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4783933333333332</v>
+        <v>0.4783916666666665</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.4709</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.4709</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2685,10 +2689,10 @@
         <v>0.4791</v>
       </c>
       <c r="F66" t="n">
-        <v>10574</v>
+        <v>4424</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4785449999999998</v>
+        <v>0.4783933333333332</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2701,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>0.4709</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,20 +2730,26 @@
         <v>0.4791</v>
       </c>
       <c r="F67" t="n">
-        <v>8468</v>
+        <v>10574</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4785466666666665</v>
+        <v>0.4785449999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0.4709</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,16 +2771,16 @@
         <v>0.4791</v>
       </c>
       <c r="F68" t="n">
-        <v>11776</v>
+        <v>8468</v>
       </c>
       <c r="G68" t="n">
-        <v>0.4785483333333332</v>
+        <v>0.4785466666666665</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2790,16 +2806,16 @@
         <v>0.4791</v>
       </c>
       <c r="F69" t="n">
-        <v>13199</v>
+        <v>11776</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4785499999999999</v>
+        <v>0.4785483333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2825,16 +2841,16 @@
         <v>0.4791</v>
       </c>
       <c r="F70" t="n">
-        <v>3788</v>
+        <v>13199</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4785616666666665</v>
+        <v>0.4785499999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2860,16 +2876,16 @@
         <v>0.4791</v>
       </c>
       <c r="F71" t="n">
-        <v>5163</v>
+        <v>3788</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4785733333333331</v>
+        <v>0.4785616666666665</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2895,10 +2911,10 @@
         <v>0.4791</v>
       </c>
       <c r="F72" t="n">
-        <v>4684</v>
+        <v>5163</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4785849999999998</v>
+        <v>0.4785733333333331</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2946,10 @@
         <v>0.4791</v>
       </c>
       <c r="F73" t="n">
-        <v>8191</v>
+        <v>4684</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4785966666666664</v>
+        <v>0.4785849999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2981,10 @@
         <v>0.4791</v>
       </c>
       <c r="F74" t="n">
-        <v>6266</v>
+        <v>8191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.478613333333333</v>
+        <v>0.4785966666666664</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3016,10 @@
         <v>0.4791</v>
       </c>
       <c r="F75" t="n">
-        <v>6337</v>
+        <v>6266</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4786266666666663</v>
+        <v>0.478613333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3051,10 @@
         <v>0.4791</v>
       </c>
       <c r="F76" t="n">
-        <v>3864</v>
+        <v>6337</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4786449999999996</v>
+        <v>0.4786266666666663</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3086,10 @@
         <v>0.4791</v>
       </c>
       <c r="F77" t="n">
-        <v>11744</v>
+        <v>3864</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4786633333333329</v>
+        <v>0.4786449999999996</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F78" t="n">
-        <v>10892</v>
+        <v>11744</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4786833333333328</v>
+        <v>0.4786633333333329</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3156,10 @@
         <v>0.4792</v>
       </c>
       <c r="F79" t="n">
-        <v>8398</v>
+        <v>10892</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4787033333333328</v>
+        <v>0.4786833333333328</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3191,10 @@
         <v>0.4792</v>
       </c>
       <c r="F80" t="n">
-        <v>11104</v>
+        <v>8398</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4787233333333328</v>
+        <v>0.4787033333333328</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3226,10 @@
         <v>0.4792</v>
       </c>
       <c r="F81" t="n">
-        <v>11589</v>
+        <v>11104</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4787433333333327</v>
+        <v>0.4787233333333328</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,19 +3261,23 @@
         <v>0.4792</v>
       </c>
       <c r="F82" t="n">
-        <v>4594</v>
+        <v>11589</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4787633333333327</v>
+        <v>0.4787433333333327</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.4792</v>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3280,20 +3300,28 @@
         <v>0.4792</v>
       </c>
       <c r="F83" t="n">
-        <v>8766</v>
+        <v>4594</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4787833333333326</v>
+        <v>0.4787633333333327</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3315,10 +3343,10 @@
         <v>0.4792</v>
       </c>
       <c r="F84" t="n">
-        <v>4217</v>
+        <v>8766</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4788199999999992</v>
+        <v>0.4787833333333326</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3355,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3350,10 +3384,10 @@
         <v>0.4792</v>
       </c>
       <c r="F85" t="n">
-        <v>60926.3413</v>
+        <v>4217</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4788333333333326</v>
+        <v>0.4788199999999992</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3419,10 @@
         <v>0.4792</v>
       </c>
       <c r="F86" t="n">
-        <v>4766</v>
+        <v>60926.3413</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4788483333333325</v>
+        <v>0.4788333333333326</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3454,10 @@
         <v>0.4792</v>
       </c>
       <c r="F87" t="n">
-        <v>11378</v>
+        <v>4766</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4788616666666659</v>
+        <v>0.4788483333333325</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3477,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.471</v>
+        <v>0.4792</v>
       </c>
       <c r="C88" t="n">
-        <v>0.471</v>
+        <v>0.4792</v>
       </c>
       <c r="D88" t="n">
-        <v>0.471</v>
+        <v>0.4792</v>
       </c>
       <c r="E88" t="n">
-        <v>0.471</v>
+        <v>0.4792</v>
       </c>
       <c r="F88" t="n">
-        <v>63583.2521</v>
+        <v>11378</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4787383333333325</v>
+        <v>0.4788616666666659</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3512,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4792</v>
+        <v>0.471</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4792</v>
+        <v>0.471</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4792</v>
+        <v>0.471</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4792</v>
+        <v>0.471</v>
       </c>
       <c r="F89" t="n">
-        <v>7686</v>
+        <v>63583.2521</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4787499999999991</v>
+        <v>0.4787383333333325</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3559,10 @@
         <v>0.4792</v>
       </c>
       <c r="F90" t="n">
-        <v>4678</v>
+        <v>7686</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4787616666666658</v>
+        <v>0.4787499999999991</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3582,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4788</v>
+        <v>0.4792</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4788</v>
+        <v>0.4792</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4788</v>
+        <v>0.4792</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4788</v>
+        <v>0.4792</v>
       </c>
       <c r="F91" t="n">
-        <v>3604</v>
+        <v>4678</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4787666666666658</v>
+        <v>0.4787616666666658</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3617,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="F92" t="n">
-        <v>5674</v>
+        <v>3604</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4787783333333324</v>
+        <v>0.4787666666666658</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3664,10 @@
         <v>0.4792</v>
       </c>
       <c r="F93" t="n">
-        <v>8369</v>
+        <v>5674</v>
       </c>
       <c r="G93" t="n">
-        <v>0.478789999999999</v>
+        <v>0.4787783333333324</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3699,10 @@
         <v>0.4792</v>
       </c>
       <c r="F94" t="n">
-        <v>3618</v>
+        <v>8369</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4788016666666657</v>
+        <v>0.478789999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3697,13 +3731,13 @@
         <v>0.4792</v>
       </c>
       <c r="E95" t="n">
-        <v>0.471</v>
+        <v>0.4792</v>
       </c>
       <c r="F95" t="n">
-        <v>86348</v>
+        <v>3618</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4788133333333323</v>
+        <v>0.4788016666666657</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3732,13 +3766,13 @@
         <v>0.4792</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4792</v>
+        <v>0.471</v>
       </c>
       <c r="F96" t="n">
-        <v>527129.8380634391</v>
+        <v>86348</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4788249999999989</v>
+        <v>0.4788133333333323</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3804,10 @@
         <v>0.4792</v>
       </c>
       <c r="F97" t="n">
-        <v>6189</v>
+        <v>527129.8380634391</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4788366666666656</v>
+        <v>0.4788249999999989</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3839,10 @@
         <v>0.4792</v>
       </c>
       <c r="F98" t="n">
-        <v>3770</v>
+        <v>6189</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4788483333333323</v>
+        <v>0.4788366666666656</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3874,10 @@
         <v>0.4792</v>
       </c>
       <c r="F99" t="n">
-        <v>33943</v>
+        <v>3770</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4788599999999989</v>
+        <v>0.4788483333333323</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3909,10 @@
         <v>0.4792</v>
       </c>
       <c r="F100" t="n">
-        <v>150590</v>
+        <v>33943</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4788716666666655</v>
+        <v>0.4788599999999989</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3944,10 @@
         <v>0.4792</v>
       </c>
       <c r="F101" t="n">
-        <v>24943.6</v>
+        <v>150590</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4788833333333322</v>
+        <v>0.4788716666666655</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3967,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4791</v>
+        <v>0.4792</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4791</v>
+        <v>0.4792</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4791</v>
+        <v>0.4792</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4791</v>
+        <v>0.4792</v>
       </c>
       <c r="F102" t="n">
-        <v>30000</v>
+        <v>24943.6</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4788933333333321</v>
+        <v>0.4788833333333322</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4002,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.479</v>
+        <v>0.4791</v>
       </c>
       <c r="C103" t="n">
-        <v>0.479</v>
+        <v>0.4791</v>
       </c>
       <c r="D103" t="n">
-        <v>0.479</v>
+        <v>0.4791</v>
       </c>
       <c r="E103" t="n">
-        <v>0.479</v>
+        <v>0.4791</v>
       </c>
       <c r="F103" t="n">
-        <v>5669</v>
+        <v>30000</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4788899999999988</v>
+        <v>0.4788933333333321</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4037,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4789</v>
+        <v>0.479</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4788</v>
+        <v>0.479</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4789</v>
+        <v>0.479</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4788</v>
+        <v>0.479</v>
       </c>
       <c r="F104" t="n">
-        <v>8007</v>
+        <v>5669</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4788833333333322</v>
+        <v>0.4788899999999988</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4072,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4787</v>
+        <v>0.4789</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4787</v>
+        <v>0.4788</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4787</v>
+        <v>0.4789</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4787</v>
+        <v>0.4788</v>
       </c>
       <c r="F105" t="n">
-        <v>9087</v>
+        <v>8007</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4788749999999988</v>
+        <v>0.4788833333333322</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4107,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.472</v>
+        <v>0.4787</v>
       </c>
       <c r="C106" t="n">
-        <v>0.479</v>
+        <v>0.4787</v>
       </c>
       <c r="D106" t="n">
-        <v>0.479</v>
+        <v>0.4787</v>
       </c>
       <c r="E106" t="n">
-        <v>0.472</v>
+        <v>0.4787</v>
       </c>
       <c r="F106" t="n">
-        <v>129558.1515</v>
+        <v>9087</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4788716666666655</v>
+        <v>0.4788749999999988</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4142,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4719</v>
+        <v>0.472</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4719</v>
+        <v>0.479</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4719</v>
+        <v>0.479</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4719</v>
+        <v>0.472</v>
       </c>
       <c r="F107" t="n">
-        <v>1999</v>
+        <v>129558.1515</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4787499999999989</v>
+        <v>0.4788716666666655</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4177,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.479</v>
+        <v>0.4719</v>
       </c>
       <c r="C108" t="n">
-        <v>0.479</v>
+        <v>0.4719</v>
       </c>
       <c r="D108" t="n">
-        <v>0.479</v>
+        <v>0.4719</v>
       </c>
       <c r="E108" t="n">
-        <v>0.479</v>
+        <v>0.4719</v>
       </c>
       <c r="F108" t="n">
-        <v>10097</v>
+        <v>1999</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4787466666666656</v>
+        <v>0.4787499999999989</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4224,10 @@
         <v>0.479</v>
       </c>
       <c r="F109" t="n">
-        <v>6484</v>
+        <v>10097</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4787433333333322</v>
+        <v>0.4787466666666656</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4259,10 @@
         <v>0.479</v>
       </c>
       <c r="F110" t="n">
-        <v>7342</v>
+        <v>6484</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4787399999999989</v>
+        <v>0.4787433333333322</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4294,10 @@
         <v>0.479</v>
       </c>
       <c r="F111" t="n">
-        <v>4031</v>
+        <v>7342</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4787366666666656</v>
+        <v>0.4787399999999989</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4317,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4722</v>
+        <v>0.479</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4722</v>
+        <v>0.479</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4722</v>
+        <v>0.479</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4722</v>
+        <v>0.479</v>
       </c>
       <c r="F112" t="n">
-        <v>186991.1831</v>
+        <v>4031</v>
       </c>
       <c r="G112" t="n">
-        <v>0.478619999999999</v>
+        <v>0.4787366666666656</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4352,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4778</v>
+        <v>0.4722</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4778</v>
+        <v>0.4722</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4778</v>
+        <v>0.4722</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4778</v>
+        <v>0.4722</v>
       </c>
       <c r="F113" t="n">
-        <v>6579</v>
+        <v>186991.1831</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4785966666666656</v>
+        <v>0.478619999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4387,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4764</v>
+        <v>0.4778</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4764</v>
+        <v>0.4778</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4764</v>
+        <v>0.4778</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4764</v>
+        <v>0.4778</v>
       </c>
       <c r="F114" t="n">
-        <v>6382</v>
+        <v>6579</v>
       </c>
       <c r="G114" t="n">
-        <v>0.478549999999999</v>
+        <v>0.4785966666666656</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4422,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4753</v>
+        <v>0.4764</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4753</v>
+        <v>0.4764</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4753</v>
+        <v>0.4764</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4753</v>
+        <v>0.4764</v>
       </c>
       <c r="F115" t="n">
-        <v>4295</v>
+        <v>6382</v>
       </c>
       <c r="G115" t="n">
-        <v>0.478484999999999</v>
+        <v>0.478549999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4457,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4746</v>
+        <v>0.4753</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4744</v>
+        <v>0.4753</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4746</v>
+        <v>0.4753</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4744</v>
+        <v>0.4753</v>
       </c>
       <c r="F116" t="n">
-        <v>175000</v>
+        <v>4295</v>
       </c>
       <c r="G116" t="n">
-        <v>0.478404999999999</v>
+        <v>0.478484999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4492,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>0.4746</v>
+      </c>
+      <c r="C117" t="n">
         <v>0.4744</v>
       </c>
-      <c r="C117" t="n">
-        <v>0.4759</v>
-      </c>
       <c r="D117" t="n">
-        <v>0.4759</v>
+        <v>0.4746</v>
       </c>
       <c r="E117" t="n">
         <v>0.4744</v>
       </c>
       <c r="F117" t="n">
-        <v>13132</v>
+        <v>175000</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4783499999999991</v>
+        <v>0.478404999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,7 +4527,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4759</v>
+        <v>0.4744</v>
       </c>
       <c r="C118" t="n">
         <v>0.4759</v>
@@ -4502,13 +4536,13 @@
         <v>0.4759</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4759</v>
+        <v>0.4744</v>
       </c>
       <c r="F118" t="n">
-        <v>17114.6833</v>
+        <v>13132</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4782949999999991</v>
+        <v>0.4783499999999991</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4574,10 @@
         <v>0.4759</v>
       </c>
       <c r="F119" t="n">
-        <v>2892.9147</v>
+        <v>17114.6833</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4782399999999991</v>
+        <v>0.4782949999999991</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4609,10 @@
         <v>0.4759</v>
       </c>
       <c r="F120" t="n">
-        <v>8090</v>
+        <v>2892.9147</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4781849999999991</v>
+        <v>0.4782399999999991</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4644,10 @@
         <v>0.4759</v>
       </c>
       <c r="F121" t="n">
-        <v>4308</v>
+        <v>8090</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4781299999999991</v>
+        <v>0.4781849999999991</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4679,10 @@
         <v>0.4759</v>
       </c>
       <c r="F122" t="n">
-        <v>3782</v>
+        <v>4308</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4780749999999991</v>
+        <v>0.4781299999999991</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4714,10 @@
         <v>0.4759</v>
       </c>
       <c r="F123" t="n">
-        <v>71435.7709</v>
+        <v>3782</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4781583333333324</v>
+        <v>0.4780749999999991</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +4749,10 @@
         <v>0.4759</v>
       </c>
       <c r="F124" t="n">
-        <v>3819</v>
+        <v>71435.7709</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4781049999999991</v>
+        <v>0.4781583333333324</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4784,10 @@
         <v>0.4759</v>
       </c>
       <c r="F125" t="n">
-        <v>4917</v>
+        <v>3819</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4780516666666658</v>
+        <v>0.4781049999999991</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4819,10 @@
         <v>0.4759</v>
       </c>
       <c r="F126" t="n">
-        <v>4875</v>
+        <v>4917</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4779983333333325</v>
+        <v>0.4780516666666658</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4854,10 @@
         <v>0.4759</v>
       </c>
       <c r="F127" t="n">
-        <v>9108</v>
+        <v>4875</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4779449999999991</v>
+        <v>0.4779983333333325</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,23 +4889,19 @@
         <v>0.4759</v>
       </c>
       <c r="F128" t="n">
-        <v>303599</v>
+        <v>9108</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4778916666666658</v>
+        <v>0.4779449999999991</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
@@ -4894,10 +4924,10 @@
         <v>0.4759</v>
       </c>
       <c r="F129" t="n">
-        <v>129367</v>
+        <v>303599</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4778383333333325</v>
+        <v>0.4778916666666658</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4906,14 +4936,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4935,28 +4959,20 @@
         <v>0.4759</v>
       </c>
       <c r="F130" t="n">
-        <v>8159</v>
+        <v>129367</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4777849999999991</v>
+        <v>0.4778383333333325</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4978,10 +4994,10 @@
         <v>0.4759</v>
       </c>
       <c r="F131" t="n">
-        <v>3892</v>
+        <v>8159</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4777316666666658</v>
+        <v>0.4777849999999991</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5013,23 +5029,19 @@
         <v>0.4759</v>
       </c>
       <c r="F132" t="n">
-        <v>4216</v>
+        <v>3892</v>
       </c>
       <c r="G132" t="n">
-        <v>0.4776783333333325</v>
+        <v>0.4777316666666658</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
@@ -5052,10 +5064,10 @@
         <v>0.4759</v>
       </c>
       <c r="F133" t="n">
-        <v>31292</v>
+        <v>4216</v>
       </c>
       <c r="G133" t="n">
-        <v>0.4776249999999991</v>
+        <v>0.4776783333333325</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5064,14 +5076,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5093,10 +5099,10 @@
         <v>0.4759</v>
       </c>
       <c r="F134" t="n">
-        <v>178756.551363921</v>
+        <v>31292</v>
       </c>
       <c r="G134" t="n">
-        <v>0.4775716666666658</v>
+        <v>0.4776249999999991</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5105,14 +5111,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5134,10 +5134,10 @@
         <v>0.4759</v>
       </c>
       <c r="F135" t="n">
-        <v>5489</v>
+        <v>178756.551363921</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4775183333333325</v>
+        <v>0.4775716666666658</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5169,10 +5169,10 @@
         <v>0.4759</v>
       </c>
       <c r="F136" t="n">
-        <v>4755</v>
+        <v>5489</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4774649999999992</v>
+        <v>0.4775183333333325</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5204,10 +5204,10 @@
         <v>0.4759</v>
       </c>
       <c r="F137" t="n">
-        <v>125000</v>
+        <v>4755</v>
       </c>
       <c r="G137" t="n">
-        <v>0.4774116666666658</v>
+        <v>0.4774649999999992</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5239,10 +5239,10 @@
         <v>0.4759</v>
       </c>
       <c r="F138" t="n">
-        <v>53507</v>
+        <v>125000</v>
       </c>
       <c r="G138" t="n">
-        <v>0.4773566666666659</v>
+        <v>0.4774116666666658</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>0.4759</v>
       </c>
       <c r="F139" t="n">
-        <v>4682</v>
+        <v>53507</v>
       </c>
       <c r="G139" t="n">
-        <v>0.4773016666666658</v>
+        <v>0.4773566666666659</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5309,10 +5309,10 @@
         <v>0.4759</v>
       </c>
       <c r="F140" t="n">
-        <v>4244</v>
+        <v>4682</v>
       </c>
       <c r="G140" t="n">
-        <v>0.4772466666666659</v>
+        <v>0.4773016666666658</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5344,10 +5344,10 @@
         <v>0.4759</v>
       </c>
       <c r="F141" t="n">
-        <v>81048</v>
+        <v>4244</v>
       </c>
       <c r="G141" t="n">
-        <v>0.4771916666666659</v>
+        <v>0.4772466666666659</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5379,23 +5379,19 @@
         <v>0.4759</v>
       </c>
       <c r="F142" t="n">
-        <v>104408.4134</v>
+        <v>81048</v>
       </c>
       <c r="G142" t="n">
-        <v>0.4771366666666659</v>
+        <v>0.4771916666666659</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
@@ -5418,10 +5414,10 @@
         <v>0.4759</v>
       </c>
       <c r="F143" t="n">
-        <v>4722</v>
+        <v>104408.4134</v>
       </c>
       <c r="G143" t="n">
-        <v>0.4770816666666659</v>
+        <v>0.4771366666666659</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5430,14 +5426,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5459,28 +5449,20 @@
         <v>0.4759</v>
       </c>
       <c r="F144" t="n">
-        <v>4311</v>
+        <v>4722</v>
       </c>
       <c r="G144" t="n">
-        <v>0.4770266666666659</v>
+        <v>0.4770816666666659</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5502,23 +5484,19 @@
         <v>0.4759</v>
       </c>
       <c r="F145" t="n">
-        <v>10081</v>
+        <v>4311</v>
       </c>
       <c r="G145" t="n">
-        <v>0.4769716666666659</v>
+        <v>0.4770266666666659</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
@@ -5532,36 +5510,65 @@
         <v>0.4759</v>
       </c>
       <c r="C146" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10081</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.4769716666666659</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C147" t="n">
         <v>0.4859</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D147" t="n">
         <v>0.4859</v>
       </c>
-      <c r="E146" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F146" t="n">
+      <c r="E147" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F147" t="n">
         <v>33664</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G147" t="n">
         <v>0.4770833333333326</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest OCN.xlsx
+++ b/BackTest/2020-01-22 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>19091</v>
       </c>
       <c r="G2" t="n">
+        <v>0.4770599999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4780516666666658</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5691</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4775866666666665</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4782049999999991</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3848</v>
       </c>
       <c r="G4" t="n">
+        <v>0.4775266666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4781916666666657</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>4133</v>
       </c>
       <c r="G5" t="n">
+        <v>0.4774733333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4781783333333324</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>16640.2782</v>
       </c>
       <c r="G6" t="n">
+        <v>0.4774866666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4783499999999991</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>57033.8047</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4769066666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.4781983333333324</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>4520</v>
       </c>
       <c r="G8" t="n">
+        <v>0.4769266666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4781966666666658</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4474</v>
       </c>
       <c r="G9" t="n">
+        <v>0.4775266666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4781966666666658</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>4835</v>
       </c>
       <c r="G10" t="n">
+        <v>0.47754</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4781933333333325</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>3876</v>
       </c>
       <c r="G11" t="n">
+        <v>0.4774866666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4781799999999992</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>7245</v>
       </c>
       <c r="G12" t="n">
+        <v>0.4774333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4781666666666659</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>4831</v>
       </c>
       <c r="G13" t="n">
+        <v>0.4779266666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.4781533333333325</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>6422</v>
       </c>
       <c r="G14" t="n">
+        <v>0.47788</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4781399999999992</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>13733</v>
       </c>
       <c r="G15" t="n">
+        <v>0.4778133333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.4781233333333326</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>7327</v>
       </c>
       <c r="G16" t="n">
+        <v>0.47784</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4781083333333326</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>6271</v>
       </c>
       <c r="G17" t="n">
+        <v>0.4778466666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4780883333333327</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>8662</v>
       </c>
       <c r="G18" t="n">
+        <v>0.4778533333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.4780683333333328</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>6329</v>
       </c>
       <c r="G19" t="n">
+        <v>0.47786</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4780483333333328</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>12642</v>
       </c>
       <c r="G20" t="n">
+        <v>0.4778666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4780283333333328</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>4206</v>
       </c>
       <c r="G21" t="n">
+        <v>0.4777999999999999</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4780083333333329</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>6406</v>
       </c>
       <c r="G22" t="n">
+        <v>0.4783333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.477988333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>3754</v>
       </c>
       <c r="G23" t="n">
+        <v>0.4782666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.477968333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>3698</v>
       </c>
       <c r="G24" t="n">
+        <v>0.4781999999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.4779499999999997</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>218661</v>
       </c>
       <c r="G25" t="n">
+        <v>0.4780666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.4779149999999997</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>58954</v>
       </c>
       <c r="G26" t="n">
+        <v>0.4780666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.4779033333333331</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>8679</v>
       </c>
       <c r="G27" t="n">
+        <v>0.4780599999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.4778899999999998</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>10388</v>
       </c>
       <c r="G28" t="n">
+        <v>0.4780599999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.4778783333333331</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>5045</v>
       </c>
       <c r="G29" t="n">
+        <v>0.4780599999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.4778666666666665</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2104845</v>
       </c>
       <c r="G30" t="n">
+        <v>0.4780866666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.4778549999999999</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>3600</v>
       </c>
       <c r="G31" t="n">
+        <v>0.4780999999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.4778433333333332</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>6860</v>
       </c>
       <c r="G32" t="n">
+        <v>0.4781333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.4778316666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>3997</v>
       </c>
       <c r="G33" t="n">
+        <v>0.4781666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.47782</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>9542</v>
       </c>
       <c r="G34" t="n">
+        <v>0.4782000000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.4778083333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>5677</v>
       </c>
       <c r="G35" t="n">
+        <v>0.4782333333333335</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.4777983333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>9191</v>
       </c>
       <c r="G36" t="n">
+        <v>0.4782666666666668</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.4777883333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>10638</v>
       </c>
       <c r="G37" t="n">
+        <v>0.4783000000000002</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.47778</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>5296</v>
       </c>
       <c r="G38" t="n">
+        <v>0.4783333333333336</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.4777750000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>6220</v>
       </c>
       <c r="G39" t="n">
+        <v>0.4783666666666669</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.4779166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>3581</v>
       </c>
       <c r="G40" t="n">
+        <v>0.4784666666666669</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.4779150000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>10137</v>
       </c>
       <c r="G41" t="n">
+        <v>0.4784733333333336</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.4779100000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>3754</v>
       </c>
       <c r="G42" t="n">
+        <v>0.478486666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.4779066666666668</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>118294</v>
       </c>
       <c r="G43" t="n">
+        <v>0.4784933333333337</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.4779016666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>50000</v>
       </c>
       <c r="G44" t="n">
+        <v>0.4785466666666671</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.4779100000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>4860</v>
       </c>
       <c r="G45" t="n">
+        <v>0.4785933333333336</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.4779166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>4441</v>
       </c>
       <c r="G46" t="n">
+        <v>0.4786400000000003</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.4779233333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>4590</v>
       </c>
       <c r="G47" t="n">
+        <v>0.4786866666666669</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.4779316666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>4969</v>
       </c>
       <c r="G48" t="n">
+        <v>0.4787333333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.478085</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>4075</v>
       </c>
       <c r="G49" t="n">
+        <v>0.4787800000000001</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.4780916666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>10113</v>
       </c>
       <c r="G50" t="n">
+        <v>0.4788266666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.4781</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>13060</v>
       </c>
       <c r="G51" t="n">
+        <v>0.4788733333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.4781066666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>9636</v>
       </c>
       <c r="G52" t="n">
+        <v>0.47892</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.478115</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>5063</v>
       </c>
       <c r="G53" t="n">
+        <v>0.4789666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.4781233333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>7751</v>
       </c>
       <c r="G54" t="n">
+        <v>0.4790133333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.4782766666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>6309</v>
       </c>
       <c r="G55" t="n">
+        <v>0.4790599999999998</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.4782833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>89809.4875</v>
       </c>
       <c r="G56" t="n">
+        <v>0.4791066666666665</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.4782833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>5642</v>
       </c>
       <c r="G57" t="n">
+        <v>0.479153333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.4782833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>11859</v>
       </c>
       <c r="G58" t="n">
+        <v>0.4791999999999997</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.4784199999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>4211</v>
       </c>
       <c r="G59" t="n">
+        <v>0.4791999999999997</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.4784216666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>5014</v>
       </c>
       <c r="G60" t="n">
+        <v>0.4791999999999997</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.4784233333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>11588</v>
       </c>
       <c r="G61" t="n">
+        <v>0.4791999999999997</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.4784449999999998</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>12591</v>
       </c>
       <c r="G62" t="n">
+        <v>0.4791999999999997</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.4784666666666665</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>11185</v>
       </c>
       <c r="G63" t="n">
+        <v>0.4791999999999997</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.4784883333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>99124.9357</v>
       </c>
       <c r="G64" t="n">
+        <v>0.4786466666666664</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.4783716666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,22 +2847,25 @@
         <v>5018</v>
       </c>
       <c r="G65" t="n">
+        <v>0.4786399999999997</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.4783916666666665</v>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4709</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>0.4709</v>
       </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>0.4709</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,24 +2889,27 @@
         <v>4424</v>
       </c>
       <c r="G66" t="n">
+        <v>0.4786333333333331</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.4783933333333332</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
         <v>0.4709</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2733,24 +2933,27 @@
         <v>10574</v>
       </c>
       <c r="G67" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.4785449999999998</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
         <v>0.4709</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +2977,21 @@
         <v>8468</v>
       </c>
       <c r="G68" t="n">
+        <v>0.4786199999999998</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.4785466666666665</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3015,21 @@
         <v>11776</v>
       </c>
       <c r="G69" t="n">
+        <v>0.4786133333333332</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.4785483333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3053,21 @@
         <v>13199</v>
       </c>
       <c r="G70" t="n">
+        <v>0.4786066666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.4785499999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3091,21 @@
         <v>3788</v>
       </c>
       <c r="G71" t="n">
+        <v>0.4785999999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.4785616666666665</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3129,21 @@
         <v>5163</v>
       </c>
       <c r="G72" t="n">
+        <v>0.4785933333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.4785733333333331</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3167,21 @@
         <v>4684</v>
       </c>
       <c r="G73" t="n">
+        <v>0.4785866666666665</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.4785849999999998</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3205,21 @@
         <v>8191</v>
       </c>
       <c r="G74" t="n">
+        <v>0.4785799999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.4785966666666664</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3243,21 @@
         <v>6266</v>
       </c>
       <c r="G75" t="n">
+        <v>0.4785733333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.478613333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3281,21 @@
         <v>6337</v>
       </c>
       <c r="G76" t="n">
+        <v>0.4785666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.4786266666666663</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3319,21 @@
         <v>3864</v>
       </c>
       <c r="G77" t="n">
+        <v>0.4785599999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.4786449999999996</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3357,21 @@
         <v>11744</v>
       </c>
       <c r="G78" t="n">
+        <v>0.4785533333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.4786633333333329</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3395,21 @@
         <v>10892</v>
       </c>
       <c r="G79" t="n">
+        <v>0.4791066666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.4786833333333328</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3433,21 @@
         <v>8398</v>
       </c>
       <c r="G80" t="n">
+        <v>0.4791133333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.4787033333333328</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3471,21 @@
         <v>11104</v>
       </c>
       <c r="G81" t="n">
+        <v>0.4791199999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.4787233333333328</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,22 +3509,21 @@
         <v>11589</v>
       </c>
       <c r="G82" t="n">
+        <v>0.4791266666666665</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.4787433333333327</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.4792</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,1467 +3547,1595 @@
         <v>4594</v>
       </c>
       <c r="G83" t="n">
+        <v>0.4791333333333332</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.4787633333333327</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F84" t="n">
+        <v>8766</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.4791399999999998</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.4787833333333326</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4217</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.4791466666666665</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.4788199999999992</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F86" t="n">
+        <v>60926.3413</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.4791533333333332</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.4788333333333326</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4766</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.4791599999999998</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.4788483333333325</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11378</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.4791666666666664</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.4788616666666659</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="F89" t="n">
+        <v>63583.2521</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.4787383333333325</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7686</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.4786333333333331</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.4787499999999991</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4678</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.4786399999999997</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.4787616666666658</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3604</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.4786199999999997</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.4787666666666658</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5674</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.4787783333333324</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8369</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.478789999999999</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3618</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.4788016666666657</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="F96" t="n">
+        <v>86348</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.4788133333333323</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F97" t="n">
+        <v>527129.8380634391</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.4788249999999989</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6189</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.4788366666666656</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3770</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.4788483333333323</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F100" t="n">
+        <v>33943</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.4788599999999989</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F101" t="n">
+        <v>150590</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.4788716666666655</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F102" t="n">
+        <v>24943.6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.4786266666666664</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.4788833333333322</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="F103" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.4786199999999997</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.4788933333333321</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5669</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.479153333333333</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.4788899999999988</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.4789</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.4789</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8007</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.4791266666666664</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.4788833333333322</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9087</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.4790933333333331</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.4788749999999988</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="F107" t="n">
+        <v>129558.1515</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.4791066666666665</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.4788716666666655</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.4719</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.4719</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.4719</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4719</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.4786199999999998</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.4787499999999989</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10097</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.4786066666666665</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.4787466666666656</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F110" t="n">
+        <v>6484</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.4785933333333332</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.4787433333333322</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7342</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.4785799999999999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.4787399999999989</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4031</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.4785666666666666</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.4787366666666656</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="F113" t="n">
+        <v>186991.1831</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.4780999999999999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.478619999999999</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4778</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.4778</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.4778</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.4778</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6579</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.4780066666666666</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.4785966666666656</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6382</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.47782</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.478549999999999</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4295</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.47756</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.478484999999999</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4746</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4744</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.4746</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4744</v>
+      </c>
+      <c r="F117" t="n">
+        <v>175000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.4772400000000001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.478404999999999</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4744</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4744</v>
+      </c>
+      <c r="F118" t="n">
+        <v>13132</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.4770266666666668</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.4783499999999991</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F119" t="n">
+        <v>17114.6833</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.4768200000000001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.4782949999999991</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2892.9147</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.4766266666666668</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.4782399999999991</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8090</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.4764400000000001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.4781849999999991</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4308</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.4762333333333335</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.4781299999999991</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3782</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.4765000000000002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.4780749999999991</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F84" t="n">
-        <v>8766</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.4787833333333326</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F124" t="n">
+        <v>71435.7709</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.4762933333333335</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.4781583333333324</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F85" t="n">
-        <v>4217</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.4788199999999992</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F86" t="n">
-        <v>60926.3413</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.4788333333333326</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4766</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.4788483333333325</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F88" t="n">
-        <v>11378</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.4788616666666659</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="F89" t="n">
-        <v>63583.2521</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.4787383333333325</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F90" t="n">
-        <v>7686</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.4787499999999991</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F91" t="n">
-        <v>4678</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.4787616666666658</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3604</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.4787666666666658</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F93" t="n">
-        <v>5674</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.4787783333333324</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F94" t="n">
-        <v>8369</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.478789999999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3618</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.4788016666666657</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="F96" t="n">
-        <v>86348</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.4788133333333323</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F97" t="n">
-        <v>527129.8380634391</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.4788249999999989</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F98" t="n">
-        <v>6189</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.4788366666666656</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3770</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.4788483333333323</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F100" t="n">
-        <v>33943</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.4788599999999989</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F101" t="n">
-        <v>150590</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.4788716666666655</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F102" t="n">
-        <v>24943.6</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.4788833333333322</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F103" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.4788933333333321</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="F104" t="n">
-        <v>5669</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.4788899999999988</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.4789</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.4789</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="F105" t="n">
-        <v>8007</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.4788833333333322</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="F106" t="n">
-        <v>9087</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.4788749999999988</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="F107" t="n">
-        <v>129558.1515</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.4788716666666655</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.4719</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.4719</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.4719</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.4719</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1999</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.4787499999999989</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="F109" t="n">
-        <v>10097</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.4787466666666656</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="F110" t="n">
-        <v>6484</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.4787433333333322</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="F111" t="n">
-        <v>7342</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.4787399999999989</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="F112" t="n">
-        <v>4031</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.4787366666666656</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.4722</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.4722</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.4722</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.4722</v>
-      </c>
-      <c r="F113" t="n">
-        <v>186991.1831</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.478619999999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.4778</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.4778</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.4778</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.4778</v>
-      </c>
-      <c r="F114" t="n">
-        <v>6579</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.4785966666666656</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.4764</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.4764</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.4764</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.4764</v>
-      </c>
-      <c r="F115" t="n">
-        <v>6382</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.478549999999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="F116" t="n">
-        <v>4295</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.478484999999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.4746</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.4744</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.4746</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.4744</v>
-      </c>
-      <c r="F117" t="n">
-        <v>175000</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.478404999999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.4744</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.4744</v>
-      </c>
-      <c r="F118" t="n">
-        <v>13132</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.4783499999999991</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F119" t="n">
-        <v>17114.6833</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.4782949999999991</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2892.9147</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.4782399999999991</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F121" t="n">
-        <v>8090</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.4781849999999991</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F122" t="n">
-        <v>4308</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.4781299999999991</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3782</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.4780749999999991</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F124" t="n">
-        <v>71435.7709</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.4781583333333324</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,18 +5159,21 @@
         <v>3819</v>
       </c>
       <c r="G125" t="n">
+        <v>0.4760866666666669</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.4781049999999991</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,18 +5197,21 @@
         <v>4917</v>
       </c>
       <c r="G126" t="n">
+        <v>0.4758800000000002</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.4780516666666658</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,18 +5235,21 @@
         <v>4875</v>
       </c>
       <c r="G127" t="n">
+        <v>0.4756733333333336</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.4779983333333325</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5273,21 @@
         <v>9108</v>
       </c>
       <c r="G128" t="n">
+        <v>0.4759200000000002</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.4779449999999991</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +5311,21 @@
         <v>303599</v>
       </c>
       <c r="G129" t="n">
+        <v>0.4757933333333336</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.4778916666666658</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +5349,21 @@
         <v>129367</v>
       </c>
       <c r="G130" t="n">
+        <v>0.4757600000000002</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.4778383333333325</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +5387,21 @@
         <v>8159</v>
       </c>
       <c r="G131" t="n">
+        <v>0.4758000000000003</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.4777849999999991</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +5425,21 @@
         <v>3892</v>
       </c>
       <c r="G132" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.4777316666666658</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,18 +5463,21 @@
         <v>4216</v>
       </c>
       <c r="G133" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.4776783333333325</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +5501,21 @@
         <v>31292</v>
       </c>
       <c r="G134" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.4776249999999991</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,18 +5539,21 @@
         <v>178756.551363921</v>
       </c>
       <c r="G135" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.4775716666666658</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,18 +5577,21 @@
         <v>5489</v>
       </c>
       <c r="G136" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.4775183333333325</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,18 +5615,21 @@
         <v>4755</v>
       </c>
       <c r="G137" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.4774649999999992</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,18 +5653,21 @@
         <v>125000</v>
       </c>
       <c r="G138" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.4774116666666658</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,18 +5691,21 @@
         <v>53507</v>
       </c>
       <c r="G139" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.4773566666666659</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,18 +5729,21 @@
         <v>4682</v>
       </c>
       <c r="G140" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.4773016666666658</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5347,18 +5767,21 @@
         <v>4244</v>
       </c>
       <c r="G141" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.4772466666666659</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,18 +5805,25 @@
         <v>81048</v>
       </c>
       <c r="G142" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.4771916666666659</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,18 +5847,29 @@
         <v>104408.4134</v>
       </c>
       <c r="G143" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.4771366666666659</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,18 +5893,29 @@
         <v>4722</v>
       </c>
       <c r="G144" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.4770816666666659</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5487,18 +5939,25 @@
         <v>4311</v>
       </c>
       <c r="G145" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.4770266666666659</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,18 +5981,29 @@
         <v>10081</v>
       </c>
       <c r="G146" t="n">
+        <v>0.4759000000000003</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.4769716666666659</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,18 +6027,469 @@
         <v>33664</v>
       </c>
       <c r="G147" t="n">
+        <v>0.4765666666666669</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.4770833333333326</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="F148" t="n">
+        <v>653458</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.4765600000000002</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.477026666666666</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.4823</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.4858</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="F149" t="n">
+        <v>200270</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.4769866666666669</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.4772149999999993</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="F150" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.4769800000000002</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.4771583333333326</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.4858</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="F151" t="n">
+        <v>125000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.4776400000000002</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.4772683333333327</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4158.945851348569</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.4782933333333335</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.4773833333333327</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.4789466666666669</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.4774916666666661</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="F154" t="n">
+        <v>217857.5595</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.4795933333333335</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.4775983333333328</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="F155" t="n">
+        <v>121850</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.4800533333333335</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.4776583333333328</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.4721</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.4821</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.4721</v>
+      </c>
+      <c r="F156" t="n">
+        <v>128126.69</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.4798000000000002</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.4775399999999995</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3141.4162</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.4796066666666668</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.4774366666666662</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest OCN.xlsx
+++ b/BackTest/2020-01-22 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="F2" t="n">
-        <v>19091</v>
+        <v>53807.1752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4770599999999999</v>
+        <v>-1433283.267478349</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4780516666666658</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="F3" t="n">
-        <v>5691</v>
+        <v>4148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4775866666666665</v>
+        <v>-1433283.267478349</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4782049999999991</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4779</v>
+        <v>0.4791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4779</v>
+        <v>0.4791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4779</v>
+        <v>0.4791</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4779</v>
+        <v>0.4791</v>
       </c>
       <c r="F4" t="n">
-        <v>3848</v>
+        <v>4174.4939</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4775266666666666</v>
+        <v>-1437457.761378349</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4781916666666657</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4779</v>
+        <v>0.4791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4779</v>
+        <v>0.4791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4779</v>
+        <v>0.4791</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4779</v>
+        <v>0.4791</v>
       </c>
       <c r="F5" t="n">
-        <v>4133</v>
+        <v>5347</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4774733333333332</v>
+        <v>-1437457.761378349</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4781783333333324</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -602,24 +585,21 @@
         <v>0.479</v>
       </c>
       <c r="F6" t="n">
-        <v>16640.2782</v>
+        <v>2087.6827</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4774866666666666</v>
+        <v>-1439545.444078349</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4783499999999991</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.47</v>
+        <v>0.4789</v>
       </c>
       <c r="C7" t="n">
-        <v>0.47</v>
+        <v>0.4788</v>
       </c>
       <c r="D7" t="n">
-        <v>0.47</v>
+        <v>0.4789</v>
       </c>
       <c r="E7" t="n">
-        <v>0.47</v>
+        <v>0.4687</v>
       </c>
       <c r="F7" t="n">
-        <v>57033.8047</v>
+        <v>117212.2556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4769066666666666</v>
+        <v>-1556757.699678349</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4781983333333324</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.479</v>
+        <v>0.47</v>
       </c>
       <c r="C8" t="n">
-        <v>0.479</v>
+        <v>0.47</v>
       </c>
       <c r="D8" t="n">
-        <v>0.479</v>
+        <v>0.47</v>
       </c>
       <c r="E8" t="n">
-        <v>0.479</v>
+        <v>0.47</v>
       </c>
       <c r="F8" t="n">
-        <v>4520</v>
+        <v>7455</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4769266666666666</v>
+        <v>-1564212.699678349</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4781966666666658</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.479</v>
+        <v>0.4787</v>
       </c>
       <c r="C9" t="n">
-        <v>0.479</v>
+        <v>0.4786</v>
       </c>
       <c r="D9" t="n">
-        <v>0.479</v>
+        <v>0.4787</v>
       </c>
       <c r="E9" t="n">
-        <v>0.479</v>
+        <v>0.4786</v>
       </c>
       <c r="F9" t="n">
-        <v>4474</v>
+        <v>10978</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4775266666666667</v>
+        <v>-1553234.699678349</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4781966666666658</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.479</v>
+        <v>0.4788</v>
       </c>
       <c r="C10" t="n">
-        <v>0.479</v>
+        <v>0.4788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.479</v>
+        <v>0.4788</v>
       </c>
       <c r="E10" t="n">
-        <v>0.479</v>
+        <v>0.4788</v>
       </c>
       <c r="F10" t="n">
-        <v>4835</v>
+        <v>3657</v>
       </c>
       <c r="G10" t="n">
-        <v>0.47754</v>
+        <v>-1549577.699678349</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4781933333333325</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4784</v>
+        <v>0.4788</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4784</v>
+        <v>0.4787</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4784</v>
+        <v>0.4788</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4784</v>
+        <v>0.4787</v>
       </c>
       <c r="F11" t="n">
-        <v>3876</v>
+        <v>10677</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4774866666666667</v>
+        <v>-1560254.699678349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4781799999999992</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4784</v>
+        <v>0.4788</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4784</v>
+        <v>0.4788</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4784</v>
+        <v>0.4788</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4784</v>
+        <v>0.4788</v>
       </c>
       <c r="F12" t="n">
-        <v>7245</v>
+        <v>9483</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4774333333333333</v>
+        <v>-1550771.699678349</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4781666666666659</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4784</v>
+        <v>0.4787</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4784</v>
+        <v>0.4787</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4784</v>
+        <v>0.4787</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4784</v>
+        <v>0.4787</v>
       </c>
       <c r="F13" t="n">
-        <v>4831</v>
+        <v>6844</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4779266666666667</v>
+        <v>-1557615.699678349</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4781533333333325</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4784</v>
+        <v>0.4786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4784</v>
+        <v>0.4788</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4784</v>
+        <v>0.4788</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4784</v>
+        <v>0.4786</v>
       </c>
       <c r="F14" t="n">
-        <v>6422</v>
+        <v>15541</v>
       </c>
       <c r="G14" t="n">
-        <v>0.47788</v>
+        <v>-1542074.699678349</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4781399999999992</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4782</v>
+        <v>0.4788</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4781</v>
+        <v>0.4788</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4782</v>
+        <v>0.4788</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4781</v>
+        <v>0.4788</v>
       </c>
       <c r="F15" t="n">
-        <v>13733</v>
+        <v>2088.5548</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4778133333333334</v>
+        <v>-1542074.699678349</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4781233333333326</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4783</v>
+        <v>0.4787</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4783</v>
+        <v>0.4787</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4783</v>
+        <v>0.4787</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4783</v>
+        <v>0.4787</v>
       </c>
       <c r="F16" t="n">
-        <v>7327</v>
+        <v>1057.0295</v>
       </c>
       <c r="G16" t="n">
-        <v>0.47784</v>
+        <v>-1543131.729178349</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4781083333333326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="C17" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="D17" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="E17" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="F17" t="n">
-        <v>6271</v>
+        <v>6430</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4778466666666666</v>
+        <v>-1549561.729178349</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4780883333333327</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="C18" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="D18" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="E18" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="F18" t="n">
-        <v>8662</v>
+        <v>12181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4778533333333333</v>
+        <v>-1537380.729178349</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4780683333333328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="C19" t="n">
-        <v>0.478</v>
+        <v>0.4787</v>
       </c>
       <c r="D19" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="E19" t="n">
-        <v>0.478</v>
+        <v>0.4787</v>
       </c>
       <c r="F19" t="n">
-        <v>6329</v>
+        <v>18695</v>
       </c>
       <c r="G19" t="n">
-        <v>0.47786</v>
+        <v>-1556075.729178349</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4780483333333328</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="C20" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="D20" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="E20" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="F20" t="n">
-        <v>12642</v>
+        <v>960052184</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4778666666666666</v>
+        <v>958496108.2708217</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4780283333333328</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="C21" t="n">
-        <v>0.478</v>
+        <v>0.4787</v>
       </c>
       <c r="D21" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="E21" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="F21" t="n">
-        <v>4206</v>
+        <v>638639809.973</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4777999999999999</v>
+        <v>319856298.2978216</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4780083333333329</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.478</v>
+        <v>0.4787</v>
       </c>
       <c r="C22" t="n">
-        <v>0.478</v>
+        <v>0.4787</v>
       </c>
       <c r="D22" t="n">
-        <v>0.478</v>
+        <v>0.4787</v>
       </c>
       <c r="E22" t="n">
-        <v>0.478</v>
+        <v>0.4787</v>
       </c>
       <c r="F22" t="n">
-        <v>6406</v>
+        <v>81076.18459999999</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4783333333333333</v>
+        <v>319856298.2978216</v>
       </c>
       <c r="H22" t="n">
-        <v>0.477988333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="C23" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="D23" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="E23" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="F23" t="n">
-        <v>3754</v>
+        <v>93134.5273</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4782666666666666</v>
+        <v>319763163.7705216</v>
       </c>
       <c r="H23" t="n">
-        <v>0.477968333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="C24" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="D24" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="E24" t="n">
-        <v>0.478</v>
+        <v>0.4788</v>
       </c>
       <c r="F24" t="n">
-        <v>3698</v>
+        <v>500000</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4781999999999999</v>
+        <v>320263163.7705216</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4779499999999997</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.477</v>
+        <v>0.4787</v>
       </c>
       <c r="C25" t="n">
-        <v>0.477</v>
+        <v>0.4792</v>
       </c>
       <c r="D25" t="n">
-        <v>0.477</v>
+        <v>0.4792</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4769</v>
+        <v>0.4787</v>
       </c>
       <c r="F25" t="n">
-        <v>218661</v>
+        <v>75000</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4780666666666666</v>
+        <v>320338163.7705216</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4779149999999997</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4778</v>
+        <v>0.4792</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4778</v>
+        <v>0.4792</v>
       </c>
       <c r="F26" t="n">
-        <v>58954</v>
+        <v>20050</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4780666666666666</v>
+        <v>320338163.7705216</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4779033333333331</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4783</v>
+        <v>0.4715</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4783</v>
+        <v>0.471</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4783</v>
+        <v>0.4715</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4783</v>
+        <v>0.471</v>
       </c>
       <c r="F27" t="n">
-        <v>8679</v>
+        <v>4220254.9574</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4780599999999999</v>
+        <v>316117908.8131216</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4778899999999998</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="F28" t="n">
-        <v>10388</v>
+        <v>150000</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4780599999999999</v>
+        <v>316267908.8131216</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4778783333333331</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="F29" t="n">
-        <v>5045</v>
+        <v>6996</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4780599999999999</v>
+        <v>316267908.8131216</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4778666666666665</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4783</v>
+        <v>0.4779</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4783</v>
+        <v>0.4779</v>
       </c>
       <c r="F30" t="n">
-        <v>2104845</v>
+        <v>11824</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4780866666666666</v>
+        <v>316256084.8131216</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4778549999999999</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="F31" t="n">
-        <v>3600</v>
+        <v>19091</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4780999999999999</v>
+        <v>316256084.8131216</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4778433333333332</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="F32" t="n">
-        <v>6860</v>
+        <v>5691</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4781333333333333</v>
+        <v>316256084.8131216</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4778316666666666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="F33" t="n">
-        <v>3997</v>
+        <v>3848</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4781666666666667</v>
+        <v>316256084.8131216</v>
       </c>
       <c r="H33" t="n">
-        <v>0.47782</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4785</v>
+        <v>0.4779</v>
       </c>
       <c r="F34" t="n">
-        <v>9542</v>
+        <v>4133</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4782000000000001</v>
+        <v>316256084.8131216</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4778083333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="F35" t="n">
-        <v>5677</v>
+        <v>16640.2782</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4782333333333335</v>
+        <v>316272725.0913216</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4777983333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4785</v>
+        <v>0.47</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4785</v>
+        <v>0.47</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4785</v>
+        <v>0.47</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4785</v>
+        <v>0.47</v>
       </c>
       <c r="F36" t="n">
-        <v>9191</v>
+        <v>57033.8047</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4782666666666668</v>
+        <v>316215691.2866216</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4777883333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="F37" t="n">
-        <v>10638</v>
+        <v>4520</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4783000000000002</v>
+        <v>316220211.2866216</v>
       </c>
       <c r="H37" t="n">
-        <v>0.47778</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="F38" t="n">
-        <v>5296</v>
+        <v>4474</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4783333333333336</v>
+        <v>316220211.2866216</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4777750000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4785</v>
+        <v>0.479</v>
       </c>
       <c r="F39" t="n">
-        <v>6220</v>
+        <v>4835</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4783666666666669</v>
+        <v>316220211.2866216</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4779166666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="F40" t="n">
-        <v>3581</v>
+        <v>3876</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4784666666666669</v>
+        <v>316216335.2866216</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4779150000000001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="F41" t="n">
-        <v>10137</v>
+        <v>7245</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4784733333333336</v>
+        <v>316216335.2866216</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4779100000000001</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="F42" t="n">
-        <v>3754</v>
+        <v>4831</v>
       </c>
       <c r="G42" t="n">
-        <v>0.478486666666667</v>
+        <v>316216335.2866216</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4779066666666668</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4785</v>
+        <v>0.4784</v>
       </c>
       <c r="F43" t="n">
-        <v>118294</v>
+        <v>6422</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4784933333333337</v>
+        <v>316216335.2866216</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4779016666666668</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4785</v>
+        <v>0.4782</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4792</v>
+        <v>0.4781</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4792</v>
+        <v>0.4782</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4785</v>
+        <v>0.4781</v>
       </c>
       <c r="F44" t="n">
-        <v>50000</v>
+        <v>13733</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4785466666666671</v>
+        <v>316202602.2866216</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4779100000000001</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="F45" t="n">
-        <v>4860</v>
+        <v>7327</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4785933333333336</v>
+        <v>316209929.2866216</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4779166666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F46" t="n">
-        <v>4441</v>
+        <v>6271</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4786400000000003</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4779233333333334</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F47" t="n">
-        <v>4590</v>
+        <v>8662</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4786866666666669</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4779316666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F48" t="n">
-        <v>4969</v>
+        <v>6329</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4787333333333335</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H48" t="n">
-        <v>0.478085</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F49" t="n">
-        <v>4075</v>
+        <v>12642</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4787800000000001</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4780916666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F50" t="n">
-        <v>10113</v>
+        <v>4206</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4788266666666667</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4781</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F51" t="n">
-        <v>13060</v>
+        <v>6406</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4788733333333334</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4781066666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F52" t="n">
-        <v>9636</v>
+        <v>3754</v>
       </c>
       <c r="G52" t="n">
-        <v>0.47892</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H52" t="n">
-        <v>0.478115</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F53" t="n">
-        <v>5063</v>
+        <v>3698</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4789666666666666</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4781233333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4792</v>
+        <v>0.477</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4792</v>
+        <v>0.477</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4792</v>
+        <v>0.477</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4792</v>
+        <v>0.4769</v>
       </c>
       <c r="F54" t="n">
-        <v>7751</v>
+        <v>218661</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4790133333333332</v>
+        <v>315984997.2866216</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4782766666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4792</v>
+        <v>0.4778</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4792</v>
+        <v>0.4778</v>
       </c>
       <c r="F55" t="n">
-        <v>6309</v>
+        <v>58954</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4790599999999998</v>
+        <v>316043951.2866216</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4782833333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="F56" t="n">
-        <v>89809.4875</v>
+        <v>8679</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4791066666666665</v>
+        <v>316035272.2866216</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4782833333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="F57" t="n">
-        <v>5642</v>
+        <v>10388</v>
       </c>
       <c r="G57" t="n">
-        <v>0.479153333333333</v>
+        <v>316045660.2866216</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4782833333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="F58" t="n">
-        <v>11859</v>
+        <v>5045</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4791999999999997</v>
+        <v>316045660.2866216</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4784199999999999</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="F59" t="n">
-        <v>4211</v>
+        <v>2104845</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4791999999999997</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4784216666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="F60" t="n">
-        <v>5014</v>
+        <v>3600</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4791999999999997</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4784233333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="F61" t="n">
-        <v>11588</v>
+        <v>6860</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4791999999999997</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4784449999999998</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="F62" t="n">
-        <v>12591</v>
+        <v>3997</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4791999999999997</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4784666666666665</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="F63" t="n">
-        <v>11185</v>
+        <v>9542</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4791999999999997</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4784883333333332</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4709</v>
+        <v>0.4785</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4709</v>
+        <v>0.4785</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4709</v>
+        <v>0.4785</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4709</v>
+        <v>0.4785</v>
       </c>
       <c r="F64" t="n">
-        <v>99124.9357</v>
+        <v>5677</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4786466666666664</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4783716666666666</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,40 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="F65" t="n">
-        <v>5018</v>
+        <v>9191</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4786399999999997</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4783916666666665</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.4709</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.4709</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2874,1036 +2673,959 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="F66" t="n">
-        <v>4424</v>
+        <v>10638</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4786333333333331</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4783933333333332</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>0.4709</v>
-      </c>
-      <c r="M66" t="inlineStr">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5296</v>
+      </c>
+      <c r="G67" t="n">
+        <v>318150505.2866216</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6220</v>
+      </c>
+      <c r="G68" t="n">
+        <v>318150505.2866216</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3581</v>
+      </c>
+      <c r="G69" t="n">
+        <v>318150505.2866216</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G70" t="n">
+        <v>318150505.2866216</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3754</v>
+      </c>
+      <c r="G71" t="n">
+        <v>318150505.2866216</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="F72" t="n">
+        <v>118294</v>
+      </c>
+      <c r="G72" t="n">
+        <v>318150505.2866216</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.4785</v>
+      </c>
+      <c r="F73" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4860</v>
+      </c>
+      <c r="G74" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4441</v>
+      </c>
+      <c r="G75" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4590</v>
+      </c>
+      <c r="G76" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4969</v>
+      </c>
+      <c r="G77" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4075</v>
+      </c>
+      <c r="G78" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10113</v>
+      </c>
+      <c r="G79" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F80" t="n">
+        <v>13060</v>
+      </c>
+      <c r="G80" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9636</v>
+      </c>
+      <c r="G81" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5063</v>
+      </c>
+      <c r="G82" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7751</v>
+      </c>
+      <c r="G83" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6309</v>
+      </c>
+      <c r="G84" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F85" t="n">
+        <v>89809.4875</v>
+      </c>
+      <c r="G85" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5642</v>
+      </c>
+      <c r="G86" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11859</v>
+      </c>
+      <c r="G87" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4211</v>
+      </c>
+      <c r="G88" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5014</v>
+      </c>
+      <c r="G89" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F90" t="n">
+        <v>11588</v>
+      </c>
+      <c r="G90" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12591</v>
+      </c>
+      <c r="G91" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F67" t="n">
-        <v>10574</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.4786266666666664</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.4785449999999998</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>0.4709</v>
-      </c>
-      <c r="M67" t="inlineStr">
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11185</v>
+      </c>
+      <c r="G92" t="n">
+        <v>318200505.2866216</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F68" t="n">
-        <v>8468</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.4786199999999998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.4785466666666665</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F69" t="n">
-        <v>11776</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.4786133333333332</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.4785483333333332</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13199</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.4786066666666665</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.4785499999999999</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F71" t="n">
-        <v>3788</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.4785999999999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.4785616666666665</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5163</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.4785933333333332</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.4785733333333331</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4684</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.4785866666666665</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.4785849999999998</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F74" t="n">
-        <v>8191</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.4785799999999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.4785966666666664</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F75" t="n">
-        <v>6266</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.4785733333333332</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.478613333333333</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F76" t="n">
-        <v>6337</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.4785666666666666</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.4786266666666663</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3864</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.4785599999999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.4786449999999996</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="F78" t="n">
-        <v>11744</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.4785533333333333</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.4786633333333329</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F79" t="n">
-        <v>10892</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.4791066666666666</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.4786833333333328</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F80" t="n">
-        <v>8398</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.4791133333333332</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.4787033333333328</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F81" t="n">
-        <v>11104</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.4791199999999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.4787233333333328</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F82" t="n">
-        <v>11589</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.4791266666666665</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.4787433333333327</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F83" t="n">
-        <v>4594</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.4791333333333332</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.4787633333333327</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F84" t="n">
-        <v>8766</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.4791399999999998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.4787833333333326</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F85" t="n">
-        <v>4217</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.4791466666666665</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.4788199999999992</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F86" t="n">
-        <v>60926.3413</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.4791533333333332</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.4788333333333326</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4766</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.4791599999999998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.4788483333333325</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F88" t="n">
-        <v>11378</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.4791666666666664</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.4788616666666659</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="F89" t="n">
-        <v>63583.2521</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.4786266666666664</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.4787383333333325</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F90" t="n">
-        <v>7686</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.4786333333333331</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.4787499999999991</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="F91" t="n">
-        <v>4678</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.4786399999999997</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.4787616666666658</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3604</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.4786199999999997</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.4787666666666658</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,36 +3634,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4792</v>
+        <v>0.4709</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4792</v>
+        <v>0.4709</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4792</v>
+        <v>0.4709</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4792</v>
+        <v>0.4709</v>
       </c>
       <c r="F93" t="n">
-        <v>5674</v>
+        <v>99124.9357</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4786266666666664</v>
+        <v>318101380.3509216</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4787783333333324</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,36 +3669,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F94" t="n">
-        <v>8369</v>
+        <v>5018</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4786266666666664</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H94" t="n">
-        <v>0.478789999999999</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+        <v>0.4709</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4709</v>
+      </c>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,36 +3708,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F95" t="n">
-        <v>3618</v>
+        <v>4424</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4786266666666664</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4788016666666657</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4709</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,36 +3751,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E96" t="n">
-        <v>0.471</v>
+        <v>0.4791</v>
       </c>
       <c r="F96" t="n">
-        <v>86348</v>
+        <v>10574</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4786266666666664</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4788133333333323</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0.4709</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,36 +3792,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F97" t="n">
-        <v>527129.8380634391</v>
+        <v>8468</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4786266666666664</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4788249999999989</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,36 +3827,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F98" t="n">
-        <v>6189</v>
+        <v>11776</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4786266666666664</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4788366666666656</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,36 +3862,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F99" t="n">
-        <v>3770</v>
+        <v>13199</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4786266666666664</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4788483333333323</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,36 +3897,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F100" t="n">
-        <v>33943</v>
+        <v>3788</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4786266666666664</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4788599999999989</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,36 +3932,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F101" t="n">
-        <v>150590</v>
+        <v>5163</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4786266666666664</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4788716666666655</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,36 +3967,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F102" t="n">
-        <v>24943.6</v>
+        <v>4684</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4786266666666664</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H102" t="n">
-        <v>0.4788833333333322</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,24 +4014,21 @@
         <v>0.4791</v>
       </c>
       <c r="F103" t="n">
-        <v>30000</v>
+        <v>8191</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4786199999999997</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4788933333333321</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,36 +4037,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.479</v>
+        <v>0.4791</v>
       </c>
       <c r="C104" t="n">
-        <v>0.479</v>
+        <v>0.4791</v>
       </c>
       <c r="D104" t="n">
-        <v>0.479</v>
+        <v>0.4791</v>
       </c>
       <c r="E104" t="n">
-        <v>0.479</v>
+        <v>0.4791</v>
       </c>
       <c r="F104" t="n">
-        <v>5669</v>
+        <v>6266</v>
       </c>
       <c r="G104" t="n">
-        <v>0.479153333333333</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H104" t="n">
-        <v>0.4788899999999988</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,36 +4072,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4789</v>
+        <v>0.4791</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4788</v>
+        <v>0.4791</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4789</v>
+        <v>0.4791</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4788</v>
+        <v>0.4791</v>
       </c>
       <c r="F105" t="n">
-        <v>8007</v>
+        <v>6337</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4791266666666664</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4788833333333322</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,36 +4107,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4787</v>
+        <v>0.4791</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4787</v>
+        <v>0.4791</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4787</v>
+        <v>0.4791</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4787</v>
+        <v>0.4791</v>
       </c>
       <c r="F106" t="n">
-        <v>9087</v>
+        <v>3864</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4790933333333331</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4788749999999988</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,36 +4142,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.472</v>
+        <v>0.4791</v>
       </c>
       <c r="C107" t="n">
-        <v>0.479</v>
+        <v>0.4791</v>
       </c>
       <c r="D107" t="n">
-        <v>0.479</v>
+        <v>0.4791</v>
       </c>
       <c r="E107" t="n">
-        <v>0.472</v>
+        <v>0.4791</v>
       </c>
       <c r="F107" t="n">
-        <v>129558.1515</v>
+        <v>11744</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4791066666666665</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4788716666666655</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,36 +4177,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4719</v>
+        <v>0.4792</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4719</v>
+        <v>0.4792</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4719</v>
+        <v>0.4792</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4719</v>
+        <v>0.4792</v>
       </c>
       <c r="F108" t="n">
-        <v>1999</v>
+        <v>10892</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4786199999999998</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H108" t="n">
-        <v>0.4787499999999989</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,36 +4212,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="C109" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="D109" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="E109" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="F109" t="n">
-        <v>10097</v>
+        <v>8398</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4786066666666665</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4787466666666656</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,36 +4247,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="C110" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="D110" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="E110" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="F110" t="n">
-        <v>6484</v>
+        <v>11104</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4785933333333332</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H110" t="n">
-        <v>0.4787433333333322</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,36 +4282,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="C111" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="D111" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="E111" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="F111" t="n">
-        <v>7342</v>
+        <v>11589</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4785799999999999</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H111" t="n">
-        <v>0.4787399999999989</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,36 +4317,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="C112" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="D112" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="E112" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="F112" t="n">
-        <v>4031</v>
+        <v>4594</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4785666666666666</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4787366666666656</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4672,36 +4352,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4722</v>
+        <v>0.4792</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4722</v>
+        <v>0.4792</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4722</v>
+        <v>0.4792</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4722</v>
+        <v>0.4792</v>
       </c>
       <c r="F113" t="n">
-        <v>186991.1831</v>
+        <v>8766</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4780999999999999</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H113" t="n">
-        <v>0.478619999999999</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,36 +4387,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4778</v>
+        <v>0.4792</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4778</v>
+        <v>0.4792</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4778</v>
+        <v>0.4792</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4778</v>
+        <v>0.4792</v>
       </c>
       <c r="F114" t="n">
-        <v>6579</v>
+        <v>4217</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4780066666666666</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4785966666666656</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,36 +4422,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4764</v>
+        <v>0.4792</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4764</v>
+        <v>0.4792</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4764</v>
+        <v>0.4792</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4764</v>
+        <v>0.4792</v>
       </c>
       <c r="F115" t="n">
-        <v>6382</v>
+        <v>60926.3413</v>
       </c>
       <c r="G115" t="n">
-        <v>0.47782</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H115" t="n">
-        <v>0.478549999999999</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,36 +4457,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4753</v>
+        <v>0.4792</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4753</v>
+        <v>0.4792</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4753</v>
+        <v>0.4792</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4753</v>
+        <v>0.4792</v>
       </c>
       <c r="F116" t="n">
-        <v>4295</v>
+        <v>4766</v>
       </c>
       <c r="G116" t="n">
-        <v>0.47756</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H116" t="n">
-        <v>0.478484999999999</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,36 +4492,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4746</v>
+        <v>0.4792</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4744</v>
+        <v>0.4792</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4746</v>
+        <v>0.4792</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4744</v>
+        <v>0.4792</v>
       </c>
       <c r="F117" t="n">
-        <v>175000</v>
+        <v>11378</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4772400000000001</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H117" t="n">
-        <v>0.478404999999999</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,36 +4527,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4744</v>
+        <v>0.471</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4759</v>
+        <v>0.471</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4759</v>
+        <v>0.471</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4744</v>
+        <v>0.471</v>
       </c>
       <c r="F118" t="n">
-        <v>13132</v>
+        <v>63583.2521</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4770266666666668</v>
+        <v>318053707.0988216</v>
       </c>
       <c r="H118" t="n">
-        <v>0.4783499999999991</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,36 +4562,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F119" t="n">
-        <v>17114.6833</v>
+        <v>7686</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4768200000000001</v>
+        <v>318061393.0988216</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4782949999999991</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,36 +4597,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F120" t="n">
-        <v>2892.9147</v>
+        <v>4678</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4766266666666668</v>
+        <v>318061393.0988216</v>
       </c>
       <c r="H120" t="n">
-        <v>0.4782399999999991</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4976,36 +4632,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4759</v>
+        <v>0.4788</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4759</v>
+        <v>0.4788</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4759</v>
+        <v>0.4788</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4759</v>
+        <v>0.4788</v>
       </c>
       <c r="F121" t="n">
-        <v>8090</v>
+        <v>3604</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4764400000000001</v>
+        <v>318057789.0988216</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4781849999999991</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,40 +4667,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F122" t="n">
-        <v>4308</v>
+        <v>5674</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4762333333333335</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4781299999999991</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5056,42 +4702,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F123" t="n">
-        <v>3782</v>
+        <v>8369</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4765000000000002</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4780749999999991</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5100,42 +4737,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F124" t="n">
-        <v>71435.7709</v>
+        <v>3618</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4762933333333335</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4781583333333324</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5144,36 +4772,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4759</v>
+        <v>0.471</v>
       </c>
       <c r="F125" t="n">
-        <v>3819</v>
+        <v>86348</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4760866666666669</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H125" t="n">
-        <v>0.4781049999999991</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,36 +4807,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F126" t="n">
-        <v>4917</v>
+        <v>527129.8380634391</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4758800000000002</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4780516666666658</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,36 +4842,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F127" t="n">
-        <v>4875</v>
+        <v>6189</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4756733333333336</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H127" t="n">
-        <v>0.4779983333333325</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5258,36 +4877,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F128" t="n">
-        <v>9108</v>
+        <v>3770</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4759200000000002</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H128" t="n">
-        <v>0.4779449999999991</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,36 +4912,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F129" t="n">
-        <v>303599</v>
+        <v>33943</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4757933333333336</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H129" t="n">
-        <v>0.4778916666666658</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5334,36 +4947,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F130" t="n">
-        <v>129367</v>
+        <v>150590</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4757600000000002</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H130" t="n">
-        <v>0.4778383333333325</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5372,36 +4982,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F131" t="n">
-        <v>8159</v>
+        <v>24943.6</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4758000000000003</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4777849999999991</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5410,36 +5017,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F132" t="n">
-        <v>3892</v>
+        <v>30000</v>
       </c>
       <c r="G132" t="n">
-        <v>0.4759000000000003</v>
+        <v>318033463.0988216</v>
       </c>
       <c r="H132" t="n">
-        <v>0.4777316666666658</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5448,36 +5052,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="F133" t="n">
-        <v>4216</v>
+        <v>5669</v>
       </c>
       <c r="G133" t="n">
-        <v>0.4759000000000003</v>
+        <v>318027794.0988216</v>
       </c>
       <c r="H133" t="n">
-        <v>0.4776783333333325</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5486,36 +5087,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4759</v>
+        <v>0.4789</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4759</v>
+        <v>0.4788</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4759</v>
+        <v>0.4789</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4759</v>
+        <v>0.4788</v>
       </c>
       <c r="F134" t="n">
-        <v>31292</v>
+        <v>8007</v>
       </c>
       <c r="G134" t="n">
-        <v>0.4759000000000003</v>
+        <v>318019787.0988216</v>
       </c>
       <c r="H134" t="n">
-        <v>0.4776249999999991</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,36 +5122,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4759</v>
+        <v>0.4787</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4759</v>
+        <v>0.4787</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4759</v>
+        <v>0.4787</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4759</v>
+        <v>0.4787</v>
       </c>
       <c r="F135" t="n">
-        <v>178756.551363921</v>
+        <v>9087</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4759000000000003</v>
+        <v>318010700.0988216</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4775716666666658</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5562,36 +5157,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4759</v>
+        <v>0.472</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4759</v>
+        <v>0.472</v>
       </c>
       <c r="F136" t="n">
-        <v>5489</v>
+        <v>129558.1515</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4759000000000003</v>
+        <v>318140258.2503216</v>
       </c>
       <c r="H136" t="n">
-        <v>0.4775183333333325</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5600,36 +5192,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4759</v>
+        <v>0.4719</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4759</v>
+        <v>0.4719</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4759</v>
+        <v>0.4719</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4759</v>
+        <v>0.4719</v>
       </c>
       <c r="F137" t="n">
-        <v>4755</v>
+        <v>1999</v>
       </c>
       <c r="G137" t="n">
-        <v>0.4759000000000003</v>
+        <v>318138259.2503216</v>
       </c>
       <c r="H137" t="n">
-        <v>0.4774649999999992</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,36 +5227,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="F138" t="n">
-        <v>125000</v>
+        <v>10097</v>
       </c>
       <c r="G138" t="n">
-        <v>0.4759000000000003</v>
+        <v>318148356.2503216</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4774116666666658</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5676,36 +5262,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="F139" t="n">
-        <v>53507</v>
+        <v>6484</v>
       </c>
       <c r="G139" t="n">
-        <v>0.4759000000000003</v>
+        <v>318148356.2503216</v>
       </c>
       <c r="H139" t="n">
-        <v>0.4773566666666659</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,36 +5297,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="F140" t="n">
-        <v>4682</v>
+        <v>7342</v>
       </c>
       <c r="G140" t="n">
-        <v>0.4759000000000003</v>
+        <v>318148356.2503216</v>
       </c>
       <c r="H140" t="n">
-        <v>0.4773016666666658</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,36 +5332,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4759</v>
+        <v>0.479</v>
       </c>
       <c r="F141" t="n">
-        <v>4244</v>
+        <v>4031</v>
       </c>
       <c r="G141" t="n">
-        <v>0.4759000000000003</v>
+        <v>318148356.2503216</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4772466666666659</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5790,40 +5367,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4759</v>
+        <v>0.4722</v>
       </c>
       <c r="C142" t="n">
-        <v>0.4759</v>
+        <v>0.4722</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4759</v>
+        <v>0.4722</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4759</v>
+        <v>0.4722</v>
       </c>
       <c r="F142" t="n">
-        <v>81048</v>
+        <v>186991.1831</v>
       </c>
       <c r="G142" t="n">
-        <v>0.4759000000000003</v>
+        <v>317961365.0672216</v>
       </c>
       <c r="H142" t="n">
-        <v>0.4771916666666659</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5832,44 +5402,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4759</v>
+        <v>0.4778</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4759</v>
+        <v>0.4778</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4759</v>
+        <v>0.4778</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4759</v>
+        <v>0.4778</v>
       </c>
       <c r="F143" t="n">
-        <v>104408.4134</v>
+        <v>6579</v>
       </c>
       <c r="G143" t="n">
-        <v>0.4759000000000003</v>
+        <v>317967944.0672216</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4771366666666659</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5878,44 +5437,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4759</v>
+        <v>0.4764</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4759</v>
+        <v>0.4764</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4759</v>
+        <v>0.4764</v>
       </c>
       <c r="E144" t="n">
-        <v>0.4759</v>
+        <v>0.4764</v>
       </c>
       <c r="F144" t="n">
-        <v>4722</v>
+        <v>6382</v>
       </c>
       <c r="G144" t="n">
-        <v>0.4759000000000003</v>
+        <v>317961562.0672216</v>
       </c>
       <c r="H144" t="n">
-        <v>0.4770816666666659</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,40 +5472,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4759</v>
+        <v>0.4753</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4759</v>
+        <v>0.4753</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4759</v>
+        <v>0.4753</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4759</v>
+        <v>0.4753</v>
       </c>
       <c r="F145" t="n">
-        <v>4311</v>
+        <v>4295</v>
       </c>
       <c r="G145" t="n">
-        <v>0.4759000000000003</v>
+        <v>317957267.0672216</v>
       </c>
       <c r="H145" t="n">
-        <v>0.4770266666666659</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5966,44 +5507,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.4759</v>
+        <v>0.4746</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4759</v>
+        <v>0.4744</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4759</v>
+        <v>0.4746</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4759</v>
+        <v>0.4744</v>
       </c>
       <c r="F146" t="n">
-        <v>10081</v>
+        <v>175000</v>
       </c>
       <c r="G146" t="n">
-        <v>0.4759000000000003</v>
+        <v>317782267.0672216</v>
       </c>
       <c r="H146" t="n">
-        <v>0.4769716666666659</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,44 +5542,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4759</v>
+        <v>0.4744</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4859</v>
+        <v>0.4759</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4859</v>
+        <v>0.4759</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4759</v>
+        <v>0.4744</v>
       </c>
       <c r="F147" t="n">
-        <v>33664</v>
+        <v>13132</v>
       </c>
       <c r="G147" t="n">
-        <v>0.4765666666666669</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H147" t="n">
-        <v>0.4770833333333326</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M147" t="inlineStr">
+        <v>0.4744</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,42 +5583,37 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4758</v>
+        <v>0.4759</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4758</v>
+        <v>0.4759</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4859</v>
+        <v>0.4759</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4757</v>
+        <v>0.4759</v>
       </c>
       <c r="F148" t="n">
-        <v>653458</v>
+        <v>17114.6833</v>
       </c>
       <c r="G148" t="n">
-        <v>0.4765600000000002</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H148" t="n">
-        <v>0.477026666666666</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M148" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,42 +5622,37 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.4758</v>
+        <v>0.4759</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4823</v>
+        <v>0.4759</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4858</v>
+        <v>0.4759</v>
       </c>
       <c r="E149" t="n">
-        <v>0.4758</v>
+        <v>0.4759</v>
       </c>
       <c r="F149" t="n">
-        <v>200270</v>
+        <v>2892.9147</v>
       </c>
       <c r="G149" t="n">
-        <v>0.4769866666666669</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H149" t="n">
-        <v>0.4772149999999993</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M149" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6146,42 +5661,37 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4758</v>
+        <v>0.4759</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4758</v>
+        <v>0.4759</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4758</v>
+        <v>0.4759</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4758</v>
+        <v>0.4759</v>
       </c>
       <c r="F150" t="n">
-        <v>50000</v>
+        <v>8090</v>
       </c>
       <c r="G150" t="n">
-        <v>0.4769800000000002</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H150" t="n">
-        <v>0.4771583333333326</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M150" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6193,39 +5703,34 @@
         <v>0.4759</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4858</v>
+        <v>0.4759</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4859</v>
+        <v>0.4759</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4758</v>
+        <v>0.4759</v>
       </c>
       <c r="F151" t="n">
-        <v>125000</v>
+        <v>4308</v>
       </c>
       <c r="G151" t="n">
-        <v>0.4776400000000002</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H151" t="n">
-        <v>0.4772683333333327</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M151" t="inlineStr">
+      <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,42 +5739,37 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4857</v>
+        <v>0.4759</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4857</v>
+        <v>0.4759</v>
       </c>
       <c r="D152" t="n">
-        <v>0.4857</v>
+        <v>0.4759</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4857</v>
+        <v>0.4759</v>
       </c>
       <c r="F152" t="n">
-        <v>4158.945851348569</v>
+        <v>3782</v>
       </c>
       <c r="G152" t="n">
-        <v>0.4782933333333335</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H152" t="n">
-        <v>0.4773833333333327</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M152" t="inlineStr">
+      <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,42 +5778,37 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4857</v>
+        <v>0.4759</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4857</v>
+        <v>0.4759</v>
       </c>
       <c r="D153" t="n">
-        <v>0.4857</v>
+        <v>0.4759</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4857</v>
+        <v>0.4759</v>
       </c>
       <c r="F153" t="n">
-        <v>5000</v>
+        <v>71435.7709</v>
       </c>
       <c r="G153" t="n">
-        <v>0.4789466666666669</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H153" t="n">
-        <v>0.4774916666666661</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M153" t="inlineStr">
+      <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6322,42 +5817,37 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4856</v>
+        <v>0.4759</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4856</v>
+        <v>0.4759</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4856</v>
+        <v>0.4759</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4856</v>
+        <v>0.4759</v>
       </c>
       <c r="F154" t="n">
-        <v>217857.5595</v>
+        <v>3819</v>
       </c>
       <c r="G154" t="n">
-        <v>0.4795933333333335</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H154" t="n">
-        <v>0.4775983333333328</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M154" t="inlineStr">
+      <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6366,42 +5856,39 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4828</v>
+        <v>0.4759</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4828</v>
+        <v>0.4759</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4828</v>
+        <v>0.4759</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4828</v>
+        <v>0.4759</v>
       </c>
       <c r="F155" t="n">
-        <v>121850</v>
+        <v>4917</v>
       </c>
       <c r="G155" t="n">
-        <v>0.4800533333333335</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H155" t="n">
-        <v>0.4776583333333328</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>0.4759</v>
       </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M155" t="inlineStr">
+      <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6410,42 +5897,37 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.482</v>
+        <v>0.4759</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4721</v>
+        <v>0.4759</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4821</v>
+        <v>0.4759</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4721</v>
+        <v>0.4759</v>
       </c>
       <c r="F156" t="n">
-        <v>128126.69</v>
+        <v>4875</v>
       </c>
       <c r="G156" t="n">
-        <v>0.4798000000000002</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H156" t="n">
-        <v>0.4775399999999995</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M156" t="inlineStr">
+      <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6454,42 +5936,1130 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.473</v>
+        <v>0.4759</v>
       </c>
       <c r="C157" t="n">
-        <v>0.473</v>
+        <v>0.4759</v>
       </c>
       <c r="D157" t="n">
-        <v>0.473</v>
+        <v>0.4759</v>
       </c>
       <c r="E157" t="n">
-        <v>0.473</v>
+        <v>0.4759</v>
       </c>
       <c r="F157" t="n">
-        <v>3141.4162</v>
+        <v>9108</v>
       </c>
       <c r="G157" t="n">
-        <v>0.4796066666666668</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H157" t="n">
-        <v>0.4774366666666662</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="M157" t="inlineStr">
+      <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F158" t="n">
+        <v>303599</v>
+      </c>
+      <c r="G158" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F159" t="n">
+        <v>129367</v>
+      </c>
+      <c r="G159" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8159</v>
+      </c>
+      <c r="G160" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3892</v>
+      </c>
+      <c r="G161" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4216</v>
+      </c>
+      <c r="G162" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F163" t="n">
+        <v>31292</v>
+      </c>
+      <c r="G163" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F164" t="n">
+        <v>178756.551363921</v>
+      </c>
+      <c r="G164" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5489</v>
+      </c>
+      <c r="G165" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4755</v>
+      </c>
+      <c r="G166" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F167" t="n">
+        <v>125000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F168" t="n">
+        <v>53507</v>
+      </c>
+      <c r="G168" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4682</v>
+      </c>
+      <c r="G169" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4244</v>
+      </c>
+      <c r="G170" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F171" t="n">
+        <v>81048</v>
+      </c>
+      <c r="G171" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F172" t="n">
+        <v>104408.4134</v>
+      </c>
+      <c r="G172" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4722</v>
+      </c>
+      <c r="G173" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4311</v>
+      </c>
+      <c r="G174" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10081</v>
+      </c>
+      <c r="G175" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F176" t="n">
+        <v>33664</v>
+      </c>
+      <c r="G176" t="n">
+        <v>317829063.0672216</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="F177" t="n">
+        <v>653458</v>
+      </c>
+      <c r="G177" t="n">
+        <v>317175605.0672216</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.4823</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.4858</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="F178" t="n">
+        <v>200270</v>
+      </c>
+      <c r="G178" t="n">
+        <v>317375875.0672216</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="F179" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>317325875.0672216</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.4858</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="F180" t="n">
+        <v>125000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>317450875.0672216</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4158.945851348569</v>
+      </c>
+      <c r="G181" t="n">
+        <v>317446716.1213703</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>317446716.1213703</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="F183" t="n">
+        <v>217857.5595</v>
+      </c>
+      <c r="G183" t="n">
+        <v>317228858.5618703</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="F184" t="n">
+        <v>121850</v>
+      </c>
+      <c r="G184" t="n">
+        <v>317107008.5618703</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.4721</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.4821</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.4721</v>
+      </c>
+      <c r="F185" t="n">
+        <v>128126.69</v>
+      </c>
+      <c r="G185" t="n">
+        <v>316978881.8718703</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3141.4162</v>
+      </c>
+      <c r="G186" t="n">
+        <v>316982023.2880703</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest OCN.xlsx
+++ b/BackTest/2020-01-22 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4792</v>
+        <v>0.4782</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4792</v>
+        <v>0.4781</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4792</v>
+        <v>0.4782</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4792</v>
+        <v>0.4781</v>
       </c>
       <c r="F2" t="n">
-        <v>53807.1752</v>
+        <v>13733</v>
       </c>
       <c r="G2" t="n">
-        <v>-1433283.267478349</v>
+        <v>316202602.2866216</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="F3" t="n">
-        <v>4148</v>
+        <v>7327</v>
       </c>
       <c r="G3" t="n">
-        <v>-1433283.267478349</v>
+        <v>316209929.2866216</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4791</v>
+        <v>0.478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4791</v>
+        <v>0.478</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4791</v>
+        <v>0.478</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4791</v>
+        <v>0.478</v>
       </c>
       <c r="F4" t="n">
-        <v>4174.4939</v>
+        <v>6271</v>
       </c>
       <c r="G4" t="n">
-        <v>-1437457.761378349</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4791</v>
+        <v>0.478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4791</v>
+        <v>0.478</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4791</v>
+        <v>0.478</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4791</v>
+        <v>0.478</v>
       </c>
       <c r="F5" t="n">
-        <v>5347</v>
+        <v>8662</v>
       </c>
       <c r="G5" t="n">
-        <v>-1437457.761378349</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="D6" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="E6" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="F6" t="n">
-        <v>2087.6827</v>
+        <v>6329</v>
       </c>
       <c r="G6" t="n">
-        <v>-1439545.444078349</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4789</v>
+        <v>0.478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4789</v>
+        <v>0.478</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4687</v>
+        <v>0.478</v>
       </c>
       <c r="F7" t="n">
-        <v>117212.2556</v>
+        <v>12642</v>
       </c>
       <c r="G7" t="n">
-        <v>-1556757.699678349</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.47</v>
+        <v>0.478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.47</v>
+        <v>0.478</v>
       </c>
       <c r="D8" t="n">
-        <v>0.47</v>
+        <v>0.478</v>
       </c>
       <c r="E8" t="n">
-        <v>0.47</v>
+        <v>0.478</v>
       </c>
       <c r="F8" t="n">
-        <v>7455</v>
+        <v>4206</v>
       </c>
       <c r="G8" t="n">
-        <v>-1564212.699678349</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4787</v>
+        <v>0.478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4786</v>
+        <v>0.478</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4787</v>
+        <v>0.478</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4786</v>
+        <v>0.478</v>
       </c>
       <c r="F9" t="n">
-        <v>10978</v>
+        <v>6406</v>
       </c>
       <c r="G9" t="n">
-        <v>-1553234.699678349</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="F10" t="n">
-        <v>3657</v>
+        <v>3754</v>
       </c>
       <c r="G10" t="n">
-        <v>-1549577.699678349</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4787</v>
+        <v>0.478</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4787</v>
+        <v>0.478</v>
       </c>
       <c r="F11" t="n">
-        <v>10677</v>
+        <v>3698</v>
       </c>
       <c r="G11" t="n">
-        <v>-1560254.699678349</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4788</v>
+        <v>0.477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4788</v>
+        <v>0.477</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4788</v>
+        <v>0.477</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4788</v>
+        <v>0.4769</v>
       </c>
       <c r="F12" t="n">
-        <v>9483</v>
+        <v>218661</v>
       </c>
       <c r="G12" t="n">
-        <v>-1550771.699678349</v>
+        <v>315984997.2866216</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4787</v>
+        <v>0.4778</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4787</v>
+        <v>0.4784</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4787</v>
+        <v>0.4784</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4787</v>
+        <v>0.4778</v>
       </c>
       <c r="F13" t="n">
-        <v>6844</v>
+        <v>58954</v>
       </c>
       <c r="G13" t="n">
-        <v>-1557615.699678349</v>
+        <v>316043951.2866216</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4786</v>
+        <v>0.4783</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4788</v>
+        <v>0.4783</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4788</v>
+        <v>0.4783</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4786</v>
+        <v>0.4783</v>
       </c>
       <c r="F14" t="n">
-        <v>15541</v>
+        <v>8679</v>
       </c>
       <c r="G14" t="n">
-        <v>-1542074.699678349</v>
+        <v>316035272.2866216</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4788</v>
+        <v>0.4784</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4788</v>
+        <v>0.4784</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4788</v>
+        <v>0.4784</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4788</v>
+        <v>0.4784</v>
       </c>
       <c r="F15" t="n">
-        <v>2088.5548</v>
+        <v>10388</v>
       </c>
       <c r="G15" t="n">
-        <v>-1542074.699678349</v>
+        <v>316045660.2866216</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4787</v>
+        <v>0.4784</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4787</v>
+        <v>0.4784</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4787</v>
+        <v>0.4784</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4787</v>
+        <v>0.4784</v>
       </c>
       <c r="F16" t="n">
-        <v>1057.0295</v>
+        <v>5045</v>
       </c>
       <c r="G16" t="n">
-        <v>-1543131.729178349</v>
+        <v>316045660.2866216</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4788</v>
+        <v>0.4783</v>
       </c>
       <c r="C17" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="E17" t="n">
-        <v>0.47</v>
+        <v>0.4783</v>
       </c>
       <c r="F17" t="n">
-        <v>6430</v>
+        <v>2104845</v>
       </c>
       <c r="G17" t="n">
-        <v>-1549561.729178349</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="E18" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="F18" t="n">
-        <v>12181</v>
+        <v>3600</v>
       </c>
       <c r="G18" t="n">
-        <v>-1537380.729178349</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="F19" t="n">
-        <v>18695</v>
+        <v>6860</v>
       </c>
       <c r="G19" t="n">
-        <v>-1556075.729178349</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="E20" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="F20" t="n">
-        <v>960052184</v>
+        <v>3997</v>
       </c>
       <c r="G20" t="n">
-        <v>958496108.2708217</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="E21" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="F21" t="n">
-        <v>638639809.973</v>
+        <v>9542</v>
       </c>
       <c r="G21" t="n">
-        <v>319856298.2978216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="F22" t="n">
-        <v>81076.18459999999</v>
+        <v>5677</v>
       </c>
       <c r="G22" t="n">
-        <v>319856298.2978216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="C23" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="D23" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="E23" t="n">
-        <v>0.47</v>
+        <v>0.4785</v>
       </c>
       <c r="F23" t="n">
-        <v>93134.5273</v>
+        <v>9191</v>
       </c>
       <c r="G23" t="n">
-        <v>319763163.7705216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="F24" t="n">
-        <v>500000</v>
+        <v>10638</v>
       </c>
       <c r="G24" t="n">
-        <v>320263163.7705216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="F25" t="n">
-        <v>75000</v>
+        <v>5296</v>
       </c>
       <c r="G25" t="n">
-        <v>320338163.7705216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="F26" t="n">
-        <v>20050</v>
+        <v>6220</v>
       </c>
       <c r="G26" t="n">
-        <v>320338163.7705216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4715</v>
+        <v>0.4785</v>
       </c>
       <c r="C27" t="n">
-        <v>0.471</v>
+        <v>0.4785</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4715</v>
+        <v>0.4785</v>
       </c>
       <c r="E27" t="n">
-        <v>0.471</v>
+        <v>0.4785</v>
       </c>
       <c r="F27" t="n">
-        <v>4220254.9574</v>
+        <v>3581</v>
       </c>
       <c r="G27" t="n">
-        <v>316117908.8131216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="F28" t="n">
-        <v>150000</v>
+        <v>10137</v>
       </c>
       <c r="G28" t="n">
-        <v>316267908.8131216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="F29" t="n">
-        <v>6996</v>
+        <v>3754</v>
       </c>
       <c r="G29" t="n">
-        <v>316267908.8131216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4779</v>
+        <v>0.4785</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4779</v>
+        <v>0.4785</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4779</v>
+        <v>0.4785</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4779</v>
+        <v>0.4785</v>
       </c>
       <c r="F30" t="n">
-        <v>11824</v>
+        <v>118294</v>
       </c>
       <c r="G30" t="n">
-        <v>316256084.8131216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4779</v>
+        <v>0.4785</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4779</v>
+        <v>0.4785</v>
       </c>
       <c r="F31" t="n">
-        <v>19091</v>
+        <v>50000</v>
       </c>
       <c r="G31" t="n">
-        <v>316256084.8131216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="F32" t="n">
-        <v>5691</v>
+        <v>4860</v>
       </c>
       <c r="G32" t="n">
-        <v>316256084.8131216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="F33" t="n">
-        <v>3848</v>
+        <v>4441</v>
       </c>
       <c r="G33" t="n">
-        <v>316256084.8131216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4779</v>
+        <v>0.4792</v>
       </c>
       <c r="F34" t="n">
-        <v>4133</v>
+        <v>4590</v>
       </c>
       <c r="G34" t="n">
-        <v>316256084.8131216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="C35" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="D35" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="E35" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="F35" t="n">
-        <v>16640.2782</v>
+        <v>4969</v>
       </c>
       <c r="G35" t="n">
-        <v>316272725.0913216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.47</v>
+        <v>0.4792</v>
       </c>
       <c r="C36" t="n">
-        <v>0.47</v>
+        <v>0.4792</v>
       </c>
       <c r="D36" t="n">
-        <v>0.47</v>
+        <v>0.4792</v>
       </c>
       <c r="E36" t="n">
-        <v>0.47</v>
+        <v>0.4792</v>
       </c>
       <c r="F36" t="n">
-        <v>57033.8047</v>
+        <v>4075</v>
       </c>
       <c r="G36" t="n">
-        <v>316215691.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="C37" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="D37" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="E37" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="F37" t="n">
-        <v>4520</v>
+        <v>10113</v>
       </c>
       <c r="G37" t="n">
-        <v>316220211.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="C38" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="D38" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="E38" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="F38" t="n">
-        <v>4474</v>
+        <v>13060</v>
       </c>
       <c r="G38" t="n">
-        <v>316220211.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="C39" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="D39" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="E39" t="n">
-        <v>0.479</v>
+        <v>0.4792</v>
       </c>
       <c r="F39" t="n">
-        <v>4835</v>
+        <v>9636</v>
       </c>
       <c r="G39" t="n">
-        <v>316220211.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="F40" t="n">
-        <v>3876</v>
+        <v>5063</v>
       </c>
       <c r="G40" t="n">
-        <v>316216335.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="F41" t="n">
-        <v>7245</v>
+        <v>7751</v>
       </c>
       <c r="G41" t="n">
-        <v>316216335.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="F42" t="n">
-        <v>4831</v>
+        <v>6309</v>
       </c>
       <c r="G42" t="n">
-        <v>316216335.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="F43" t="n">
-        <v>6422</v>
+        <v>89809.4875</v>
       </c>
       <c r="G43" t="n">
-        <v>316216335.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4782</v>
+        <v>0.4792</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4781</v>
+        <v>0.4792</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4782</v>
+        <v>0.4792</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4781</v>
+        <v>0.4792</v>
       </c>
       <c r="F44" t="n">
-        <v>13733</v>
+        <v>5642</v>
       </c>
       <c r="G44" t="n">
-        <v>316202602.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4783</v>
+        <v>0.4792</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4783</v>
+        <v>0.4792</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4783</v>
+        <v>0.4792</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4783</v>
+        <v>0.4792</v>
       </c>
       <c r="F45" t="n">
-        <v>7327</v>
+        <v>11859</v>
       </c>
       <c r="G45" t="n">
-        <v>316209929.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="C46" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="D46" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="E46" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="F46" t="n">
-        <v>6271</v>
+        <v>4211</v>
       </c>
       <c r="G46" t="n">
-        <v>316203658.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="C47" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="D47" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="E47" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="F47" t="n">
-        <v>8662</v>
+        <v>5014</v>
       </c>
       <c r="G47" t="n">
-        <v>316203658.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="C48" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="D48" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="E48" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="F48" t="n">
-        <v>6329</v>
+        <v>11588</v>
       </c>
       <c r="G48" t="n">
-        <v>316203658.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="C49" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="D49" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="E49" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="F49" t="n">
-        <v>12642</v>
+        <v>12591</v>
       </c>
       <c r="G49" t="n">
-        <v>316203658.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="C50" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="D50" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="E50" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="F50" t="n">
-        <v>4206</v>
+        <v>11185</v>
       </c>
       <c r="G50" t="n">
-        <v>316203658.2866216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.478</v>
+        <v>0.4709</v>
       </c>
       <c r="C51" t="n">
-        <v>0.478</v>
+        <v>0.4709</v>
       </c>
       <c r="D51" t="n">
-        <v>0.478</v>
+        <v>0.4709</v>
       </c>
       <c r="E51" t="n">
-        <v>0.478</v>
+        <v>0.4709</v>
       </c>
       <c r="F51" t="n">
-        <v>6406</v>
+        <v>99124.9357</v>
       </c>
       <c r="G51" t="n">
-        <v>316203658.2866216</v>
+        <v>318101380.3509216</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="C52" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="D52" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="E52" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="F52" t="n">
-        <v>3754</v>
+        <v>5018</v>
       </c>
       <c r="G52" t="n">
-        <v>316203658.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="C53" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="D53" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="E53" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="F53" t="n">
-        <v>3698</v>
+        <v>4424</v>
       </c>
       <c r="G53" t="n">
-        <v>316203658.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.477</v>
+        <v>0.4791</v>
       </c>
       <c r="C54" t="n">
-        <v>0.477</v>
+        <v>0.4791</v>
       </c>
       <c r="D54" t="n">
-        <v>0.477</v>
+        <v>0.4791</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4769</v>
+        <v>0.4791</v>
       </c>
       <c r="F54" t="n">
-        <v>218661</v>
+        <v>10574</v>
       </c>
       <c r="G54" t="n">
-        <v>315984997.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4778</v>
+        <v>0.4791</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4778</v>
+        <v>0.4791</v>
       </c>
       <c r="F55" t="n">
-        <v>58954</v>
+        <v>8468</v>
       </c>
       <c r="G55" t="n">
-        <v>316043951.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4783</v>
+        <v>0.4791</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4783</v>
+        <v>0.4791</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4783</v>
+        <v>0.4791</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4783</v>
+        <v>0.4791</v>
       </c>
       <c r="F56" t="n">
-        <v>8679</v>
+        <v>11776</v>
       </c>
       <c r="G56" t="n">
-        <v>316035272.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="F57" t="n">
-        <v>10388</v>
+        <v>13199</v>
       </c>
       <c r="G57" t="n">
-        <v>316045660.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="F58" t="n">
-        <v>5045</v>
+        <v>3788</v>
       </c>
       <c r="G58" t="n">
-        <v>316045660.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4783</v>
+        <v>0.4791</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4783</v>
+        <v>0.4791</v>
       </c>
       <c r="F59" t="n">
-        <v>2104845</v>
+        <v>5163</v>
       </c>
       <c r="G59" t="n">
-        <v>318150505.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F60" t="n">
-        <v>3600</v>
+        <v>4684</v>
       </c>
       <c r="G60" t="n">
-        <v>318150505.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F61" t="n">
-        <v>6860</v>
+        <v>8191</v>
       </c>
       <c r="G61" t="n">
-        <v>318150505.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F62" t="n">
-        <v>3997</v>
+        <v>6266</v>
       </c>
       <c r="G62" t="n">
-        <v>318150505.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F63" t="n">
-        <v>9542</v>
+        <v>6337</v>
       </c>
       <c r="G63" t="n">
-        <v>318150505.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F64" t="n">
-        <v>5677</v>
+        <v>3864</v>
       </c>
       <c r="G64" t="n">
-        <v>318150505.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F65" t="n">
-        <v>9191</v>
+        <v>11744</v>
       </c>
       <c r="G65" t="n">
-        <v>318150505.2866216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F66" t="n">
-        <v>10638</v>
+        <v>10892</v>
       </c>
       <c r="G66" t="n">
-        <v>318150505.2866216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F67" t="n">
-        <v>5296</v>
+        <v>8398</v>
       </c>
       <c r="G67" t="n">
-        <v>318150505.2866216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F68" t="n">
-        <v>6220</v>
+        <v>11104</v>
       </c>
       <c r="G68" t="n">
-        <v>318150505.2866216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F69" t="n">
-        <v>3581</v>
+        <v>11589</v>
       </c>
       <c r="G69" t="n">
-        <v>318150505.2866216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F70" t="n">
-        <v>10137</v>
+        <v>4594</v>
       </c>
       <c r="G70" t="n">
-        <v>318150505.2866216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F71" t="n">
-        <v>3754</v>
+        <v>8766</v>
       </c>
       <c r="G71" t="n">
-        <v>318150505.2866216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F72" t="n">
-        <v>118294</v>
+        <v>4217</v>
       </c>
       <c r="G72" t="n">
-        <v>318150505.2866216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,13 +2987,14 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C73" t="n">
         <v>0.4792</v>
@@ -2927,13 +3003,13 @@
         <v>0.4792</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F73" t="n">
-        <v>50000</v>
+        <v>60926.3413</v>
       </c>
       <c r="G73" t="n">
-        <v>318200505.2866216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2965,10 +3042,10 @@
         <v>0.4792</v>
       </c>
       <c r="F74" t="n">
-        <v>4860</v>
+        <v>4766</v>
       </c>
       <c r="G74" t="n">
-        <v>318200505.2866216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3000,10 +3078,10 @@
         <v>0.4792</v>
       </c>
       <c r="F75" t="n">
-        <v>4441</v>
+        <v>11378</v>
       </c>
       <c r="G75" t="n">
-        <v>318200505.2866216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4792</v>
+        <v>0.471</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4792</v>
+        <v>0.471</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4792</v>
+        <v>0.471</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4792</v>
+        <v>0.471</v>
       </c>
       <c r="F76" t="n">
-        <v>4590</v>
+        <v>63583.2521</v>
       </c>
       <c r="G76" t="n">
-        <v>318200505.2866216</v>
+        <v>318053707.0988216</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3070,10 +3150,10 @@
         <v>0.4792</v>
       </c>
       <c r="F77" t="n">
-        <v>4969</v>
+        <v>7686</v>
       </c>
       <c r="G77" t="n">
-        <v>318200505.2866216</v>
+        <v>318061393.0988216</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3105,10 +3186,10 @@
         <v>0.4792</v>
       </c>
       <c r="F78" t="n">
-        <v>4075</v>
+        <v>4678</v>
       </c>
       <c r="G78" t="n">
-        <v>318200505.2866216</v>
+        <v>318061393.0988216</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="F79" t="n">
-        <v>10113</v>
+        <v>3604</v>
       </c>
       <c r="G79" t="n">
-        <v>318200505.2866216</v>
+        <v>318057789.0988216</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3175,10 +3258,10 @@
         <v>0.4792</v>
       </c>
       <c r="F80" t="n">
-        <v>13060</v>
+        <v>5674</v>
       </c>
       <c r="G80" t="n">
-        <v>318200505.2866216</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3210,10 +3294,10 @@
         <v>0.4792</v>
       </c>
       <c r="F81" t="n">
-        <v>9636</v>
+        <v>8369</v>
       </c>
       <c r="G81" t="n">
-        <v>318200505.2866216</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3245,10 +3330,10 @@
         <v>0.4792</v>
       </c>
       <c r="F82" t="n">
-        <v>5063</v>
+        <v>3618</v>
       </c>
       <c r="G82" t="n">
-        <v>318200505.2866216</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3277,13 +3363,13 @@
         <v>0.4792</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4792</v>
+        <v>0.471</v>
       </c>
       <c r="F83" t="n">
-        <v>7751</v>
+        <v>86348</v>
       </c>
       <c r="G83" t="n">
-        <v>318200505.2866216</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3315,10 +3402,10 @@
         <v>0.4792</v>
       </c>
       <c r="F84" t="n">
-        <v>6309</v>
+        <v>527129.8380634391</v>
       </c>
       <c r="G84" t="n">
-        <v>318200505.2866216</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3350,16 +3438,16 @@
         <v>0.4792</v>
       </c>
       <c r="F85" t="n">
-        <v>89809.4875</v>
+        <v>6189</v>
       </c>
       <c r="G85" t="n">
-        <v>318200505.2866216</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3385,16 +3474,16 @@
         <v>0.4792</v>
       </c>
       <c r="F86" t="n">
-        <v>5642</v>
+        <v>3770</v>
       </c>
       <c r="G86" t="n">
-        <v>318200505.2866216</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3420,10 +3510,10 @@
         <v>0.4792</v>
       </c>
       <c r="F87" t="n">
-        <v>11859</v>
+        <v>33943</v>
       </c>
       <c r="G87" t="n">
-        <v>318200505.2866216</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3455,10 +3546,10 @@
         <v>0.4792</v>
       </c>
       <c r="F88" t="n">
-        <v>4211</v>
+        <v>150590</v>
       </c>
       <c r="G88" t="n">
-        <v>318200505.2866216</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3490,10 +3582,10 @@
         <v>0.4792</v>
       </c>
       <c r="F89" t="n">
-        <v>5014</v>
+        <v>24943.6</v>
       </c>
       <c r="G89" t="n">
-        <v>318200505.2866216</v>
+        <v>318063463.0988216</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,155 +3599,143 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F90" t="n">
-        <v>11588</v>
+        <v>30000</v>
       </c>
       <c r="G90" t="n">
-        <v>318200505.2866216</v>
+        <v>318033463.0988216</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.4792</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="F91" t="n">
-        <v>12591</v>
+        <v>5669</v>
       </c>
       <c r="G91" t="n">
-        <v>318200505.2866216</v>
+        <v>318027794.0988216</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4792</v>
+        <v>0.4789</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792</v>
+        <v>0.4789</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="F92" t="n">
-        <v>11185</v>
+        <v>8007</v>
       </c>
       <c r="G92" t="n">
-        <v>318200505.2866216</v>
+        <v>318019787.0988216</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4709</v>
+        <v>0.4787</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4709</v>
+        <v>0.4787</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4709</v>
+        <v>0.4787</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4709</v>
+        <v>0.4787</v>
       </c>
       <c r="F93" t="n">
-        <v>99124.9357</v>
+        <v>9087</v>
       </c>
       <c r="G93" t="n">
-        <v>318101380.3509216</v>
+        <v>318010700.0988216</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3663,67 +3743,65 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4791</v>
+        <v>0.472</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4791</v>
+        <v>0.472</v>
       </c>
       <c r="F94" t="n">
-        <v>5018</v>
+        <v>129558.1515</v>
       </c>
       <c r="G94" t="n">
-        <v>318106398.3509216</v>
+        <v>318140258.2503216</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.4709</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.4709</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4791</v>
+        <v>0.4719</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4791</v>
+        <v>0.4719</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4791</v>
+        <v>0.4719</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4791</v>
+        <v>0.4719</v>
       </c>
       <c r="F95" t="n">
-        <v>4424</v>
+        <v>1999</v>
       </c>
       <c r="G95" t="n">
-        <v>318106398.3509216</v>
+        <v>318138259.2503216</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -3732,51 +3810,50 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="K95" t="n">
-        <v>0.4709</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.479</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="F96" t="n">
-        <v>10574</v>
+        <v>10097</v>
       </c>
       <c r="G96" t="n">
-        <v>318106398.3509216</v>
+        <v>318148356.2503216</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4719</v>
+      </c>
       <c r="K96" t="n">
-        <v>0.4709</v>
+        <v>0.479</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3786,63 +3863,73 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="F97" t="n">
-        <v>8468</v>
+        <v>6484</v>
       </c>
       <c r="G97" t="n">
-        <v>318106398.3509216</v>
+        <v>318148356.2503216</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="F98" t="n">
-        <v>11776</v>
+        <v>7342</v>
       </c>
       <c r="G98" t="n">
-        <v>318106398.3509216</v>
+        <v>318148356.2503216</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3856,28 +3943,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="F99" t="n">
-        <v>13199</v>
+        <v>4031</v>
       </c>
       <c r="G99" t="n">
-        <v>318106398.3509216</v>
+        <v>318148356.2503216</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3891,28 +3979,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4791</v>
+        <v>0.4722</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4791</v>
+        <v>0.4722</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4791</v>
+        <v>0.4722</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4791</v>
+        <v>0.4722</v>
       </c>
       <c r="F100" t="n">
-        <v>3788</v>
+        <v>186991.1831</v>
       </c>
       <c r="G100" t="n">
-        <v>318106398.3509216</v>
+        <v>317961365.0672216</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3926,28 +4015,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4791</v>
+        <v>0.4778</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4791</v>
+        <v>0.4778</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4791</v>
+        <v>0.4778</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4791</v>
+        <v>0.4778</v>
       </c>
       <c r="F101" t="n">
-        <v>5163</v>
+        <v>6579</v>
       </c>
       <c r="G101" t="n">
-        <v>318106398.3509216</v>
+        <v>317967944.0672216</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3961,28 +4051,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4791</v>
+        <v>0.4764</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4791</v>
+        <v>0.4764</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4791</v>
+        <v>0.4764</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4791</v>
+        <v>0.4764</v>
       </c>
       <c r="F102" t="n">
-        <v>4684</v>
+        <v>6382</v>
       </c>
       <c r="G102" t="n">
-        <v>318106398.3509216</v>
+        <v>317961562.0672216</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3996,28 +4087,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4791</v>
+        <v>0.4753</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4791</v>
+        <v>0.4753</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4791</v>
+        <v>0.4753</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4791</v>
+        <v>0.4753</v>
       </c>
       <c r="F103" t="n">
-        <v>8191</v>
+        <v>4295</v>
       </c>
       <c r="G103" t="n">
-        <v>318106398.3509216</v>
+        <v>317957267.0672216</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4031,28 +4123,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4791</v>
+        <v>0.4746</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4791</v>
+        <v>0.4744</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4791</v>
+        <v>0.4746</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4791</v>
+        <v>0.4744</v>
       </c>
       <c r="F104" t="n">
-        <v>6266</v>
+        <v>175000</v>
       </c>
       <c r="G104" t="n">
-        <v>318106398.3509216</v>
+        <v>317782267.0672216</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4066,63 +4159,71 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4791</v>
+        <v>0.4744</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4791</v>
+        <v>0.4744</v>
       </c>
       <c r="F105" t="n">
-        <v>6337</v>
+        <v>13132</v>
       </c>
       <c r="G105" t="n">
-        <v>318106398.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.4744</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="F106" t="n">
-        <v>3864</v>
+        <v>17114.6833</v>
       </c>
       <c r="G106" t="n">
-        <v>318106398.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4132,67 +4233,79 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="F107" t="n">
-        <v>11744</v>
+        <v>2892.9147</v>
       </c>
       <c r="G107" t="n">
-        <v>318106398.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F108" t="n">
-        <v>10892</v>
+        <v>8090</v>
       </c>
       <c r="G108" t="n">
-        <v>318117290.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4202,697 +4315,835 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F109" t="n">
-        <v>8398</v>
+        <v>4308</v>
       </c>
       <c r="G109" t="n">
-        <v>318117290.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F110" t="n">
-        <v>11104</v>
+        <v>3782</v>
       </c>
       <c r="G110" t="n">
-        <v>318117290.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F111" t="n">
-        <v>11589</v>
+        <v>71435.7709</v>
       </c>
       <c r="G111" t="n">
-        <v>318117290.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F112" t="n">
-        <v>4594</v>
+        <v>3819</v>
       </c>
       <c r="G112" t="n">
-        <v>318117290.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F113" t="n">
-        <v>8766</v>
+        <v>4917</v>
       </c>
       <c r="G113" t="n">
-        <v>318117290.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F114" t="n">
-        <v>4217</v>
+        <v>4875</v>
       </c>
       <c r="G114" t="n">
-        <v>318117290.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F115" t="n">
-        <v>60926.3413</v>
+        <v>9108</v>
       </c>
       <c r="G115" t="n">
-        <v>318117290.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F116" t="n">
-        <v>4766</v>
+        <v>303599</v>
       </c>
       <c r="G116" t="n">
-        <v>318117290.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F117" t="n">
-        <v>11378</v>
+        <v>129367</v>
       </c>
       <c r="G117" t="n">
-        <v>318117290.3509216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.471</v>
+        <v>0.4759</v>
       </c>
       <c r="C118" t="n">
-        <v>0.471</v>
+        <v>0.4759</v>
       </c>
       <c r="D118" t="n">
-        <v>0.471</v>
+        <v>0.4759</v>
       </c>
       <c r="E118" t="n">
-        <v>0.471</v>
+        <v>0.4759</v>
       </c>
       <c r="F118" t="n">
-        <v>63583.2521</v>
+        <v>8159</v>
       </c>
       <c r="G118" t="n">
-        <v>318053707.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F119" t="n">
-        <v>7686</v>
+        <v>3892</v>
       </c>
       <c r="G119" t="n">
-        <v>318061393.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F120" t="n">
-        <v>4678</v>
+        <v>4216</v>
       </c>
       <c r="G120" t="n">
-        <v>318061393.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4788</v>
+        <v>0.4759</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4788</v>
+        <v>0.4759</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4788</v>
+        <v>0.4759</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4788</v>
+        <v>0.4759</v>
       </c>
       <c r="F121" t="n">
-        <v>3604</v>
+        <v>31292</v>
       </c>
       <c r="G121" t="n">
-        <v>318057789.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F122" t="n">
-        <v>5674</v>
+        <v>178756.551363921</v>
       </c>
       <c r="G122" t="n">
-        <v>318063463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F123" t="n">
-        <v>8369</v>
+        <v>5489</v>
       </c>
       <c r="G123" t="n">
-        <v>318063463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F124" t="n">
-        <v>3618</v>
+        <v>4755</v>
       </c>
       <c r="G124" t="n">
-        <v>318063463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E125" t="n">
-        <v>0.471</v>
+        <v>0.4759</v>
       </c>
       <c r="F125" t="n">
-        <v>86348</v>
+        <v>125000</v>
       </c>
       <c r="G125" t="n">
-        <v>318063463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F126" t="n">
-        <v>527129.8380634391</v>
+        <v>53507</v>
       </c>
       <c r="G126" t="n">
-        <v>318063463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F127" t="n">
-        <v>6189</v>
+        <v>4682</v>
       </c>
       <c r="G127" t="n">
-        <v>318063463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F128" t="n">
-        <v>3770</v>
+        <v>4244</v>
       </c>
       <c r="G128" t="n">
-        <v>318063463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4902,67 +5153,79 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F129" t="n">
-        <v>33943</v>
+        <v>81048</v>
       </c>
       <c r="G129" t="n">
-        <v>318063463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.4759</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F130" t="n">
-        <v>150590</v>
+        <v>104408.4134</v>
       </c>
       <c r="G130" t="n">
-        <v>318063463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4972,32 +5235,37 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4792</v>
+        <v>0.4759</v>
       </c>
       <c r="F131" t="n">
-        <v>24943.6</v>
+        <v>4722</v>
       </c>
       <c r="G131" t="n">
-        <v>318063463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5007,32 +5275,37 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4791</v>
+        <v>0.4759</v>
       </c>
       <c r="F132" t="n">
-        <v>30000</v>
+        <v>4311</v>
       </c>
       <c r="G132" t="n">
-        <v>318033463.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5042,32 +5315,37 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.479</v>
+        <v>0.4759</v>
       </c>
       <c r="C133" t="n">
-        <v>0.479</v>
+        <v>0.4759</v>
       </c>
       <c r="D133" t="n">
-        <v>0.479</v>
+        <v>0.4759</v>
       </c>
       <c r="E133" t="n">
-        <v>0.479</v>
+        <v>0.4759</v>
       </c>
       <c r="F133" t="n">
-        <v>5669</v>
+        <v>10081</v>
       </c>
       <c r="G133" t="n">
-        <v>318027794.0988216</v>
+        <v>317795399.0672216</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5077,32 +5355,37 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4789</v>
+        <v>0.4759</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4788</v>
+        <v>0.4859</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4789</v>
+        <v>0.4859</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4788</v>
+        <v>0.4759</v>
       </c>
       <c r="F134" t="n">
-        <v>8007</v>
+        <v>33664</v>
       </c>
       <c r="G134" t="n">
-        <v>318019787.0988216</v>
+        <v>317829063.0672216</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5112,32 +5395,37 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4787</v>
+        <v>0.4758</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4787</v>
+        <v>0.4758</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4787</v>
+        <v>0.4859</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4787</v>
+        <v>0.4757</v>
       </c>
       <c r="F135" t="n">
-        <v>9087</v>
+        <v>653458</v>
       </c>
       <c r="G135" t="n">
-        <v>318010700.0988216</v>
+        <v>317175605.0672216</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5147,32 +5435,37 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.472</v>
+        <v>0.4758</v>
       </c>
       <c r="C136" t="n">
-        <v>0.479</v>
+        <v>0.4823</v>
       </c>
       <c r="D136" t="n">
-        <v>0.479</v>
+        <v>0.4858</v>
       </c>
       <c r="E136" t="n">
-        <v>0.472</v>
+        <v>0.4758</v>
       </c>
       <c r="F136" t="n">
-        <v>129558.1515</v>
+        <v>200270</v>
       </c>
       <c r="G136" t="n">
-        <v>318140258.2503216</v>
+        <v>317375875.0672216</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5182,32 +5475,37 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4719</v>
+        <v>0.4758</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4719</v>
+        <v>0.4758</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4719</v>
+        <v>0.4758</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4719</v>
+        <v>0.4758</v>
       </c>
       <c r="F137" t="n">
-        <v>1999</v>
+        <v>50000</v>
       </c>
       <c r="G137" t="n">
-        <v>318138259.2503216</v>
+        <v>317325875.0672216</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5217,32 +5515,37 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.479</v>
+        <v>0.4759</v>
       </c>
       <c r="C138" t="n">
-        <v>0.479</v>
+        <v>0.4858</v>
       </c>
       <c r="D138" t="n">
-        <v>0.479</v>
+        <v>0.4859</v>
       </c>
       <c r="E138" t="n">
-        <v>0.479</v>
+        <v>0.4758</v>
       </c>
       <c r="F138" t="n">
-        <v>10097</v>
+        <v>125000</v>
       </c>
       <c r="G138" t="n">
-        <v>318148356.2503216</v>
+        <v>317450875.0672216</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5252,32 +5555,37 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.479</v>
+        <v>0.4857</v>
       </c>
       <c r="C139" t="n">
-        <v>0.479</v>
+        <v>0.4857</v>
       </c>
       <c r="D139" t="n">
-        <v>0.479</v>
+        <v>0.4857</v>
       </c>
       <c r="E139" t="n">
-        <v>0.479</v>
+        <v>0.4857</v>
       </c>
       <c r="F139" t="n">
-        <v>6484</v>
+        <v>4158.945851348569</v>
       </c>
       <c r="G139" t="n">
-        <v>318148356.2503216</v>
+        <v>317446716.1213703</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5287,32 +5595,37 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.479</v>
+        <v>0.4857</v>
       </c>
       <c r="C140" t="n">
-        <v>0.479</v>
+        <v>0.4857</v>
       </c>
       <c r="D140" t="n">
-        <v>0.479</v>
+        <v>0.4857</v>
       </c>
       <c r="E140" t="n">
-        <v>0.479</v>
+        <v>0.4857</v>
       </c>
       <c r="F140" t="n">
-        <v>7342</v>
+        <v>5000</v>
       </c>
       <c r="G140" t="n">
-        <v>318148356.2503216</v>
+        <v>317446716.1213703</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5322,73 +5635,81 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.479</v>
+        <v>0.4856</v>
       </c>
       <c r="C141" t="n">
-        <v>0.479</v>
+        <v>0.4856</v>
       </c>
       <c r="D141" t="n">
-        <v>0.479</v>
+        <v>0.4856</v>
       </c>
       <c r="E141" t="n">
-        <v>0.479</v>
+        <v>0.4856</v>
       </c>
       <c r="F141" t="n">
-        <v>4031</v>
+        <v>217857.5595</v>
       </c>
       <c r="G141" t="n">
-        <v>318148356.2503216</v>
+        <v>317228858.5618703</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4722</v>
+        <v>0.4828</v>
       </c>
       <c r="C142" t="n">
-        <v>0.4722</v>
+        <v>0.4828</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4722</v>
+        <v>0.4828</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4722</v>
+        <v>0.4828</v>
       </c>
       <c r="F142" t="n">
-        <v>186991.1831</v>
+        <v>121850</v>
       </c>
       <c r="G142" t="n">
-        <v>317961365.0672216</v>
+        <v>317107008.5618703</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5396,34 +5717,35 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4778</v>
+        <v>0.482</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4778</v>
+        <v>0.4721</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4778</v>
+        <v>0.4821</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4778</v>
+        <v>0.4721</v>
       </c>
       <c r="F143" t="n">
-        <v>6579</v>
+        <v>128126.69</v>
       </c>
       <c r="G143" t="n">
-        <v>317967944.0672216</v>
+        <v>316978881.8718703</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5431,34 +5753,35 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4764</v>
+        <v>0.473</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4764</v>
+        <v>0.473</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4764</v>
+        <v>0.473</v>
       </c>
       <c r="E144" t="n">
-        <v>0.4764</v>
+        <v>0.473</v>
       </c>
       <c r="F144" t="n">
-        <v>6382</v>
+        <v>3141.4162</v>
       </c>
       <c r="G144" t="n">
-        <v>317961562.0672216</v>
+        <v>316982023.2880703</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5466,1602 +5789,7 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4295</v>
-      </c>
-      <c r="G145" t="n">
-        <v>317957267.0672216</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.4746</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.4744</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.4746</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.4744</v>
-      </c>
-      <c r="F146" t="n">
-        <v>175000</v>
-      </c>
-      <c r="G146" t="n">
-        <v>317782267.0672216</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.4744</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.4744</v>
-      </c>
-      <c r="F147" t="n">
-        <v>13132</v>
-      </c>
-      <c r="G147" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.4744</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F148" t="n">
-        <v>17114.6833</v>
-      </c>
-      <c r="G148" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2892.9147</v>
-      </c>
-      <c r="G149" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F150" t="n">
-        <v>8090</v>
-      </c>
-      <c r="G150" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F151" t="n">
-        <v>4308</v>
-      </c>
-      <c r="G151" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3782</v>
-      </c>
-      <c r="G152" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F153" t="n">
-        <v>71435.7709</v>
-      </c>
-      <c r="G153" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F154" t="n">
-        <v>3819</v>
-      </c>
-      <c r="G154" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F155" t="n">
-        <v>4917</v>
-      </c>
-      <c r="G155" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4875</v>
-      </c>
-      <c r="G156" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F157" t="n">
-        <v>9108</v>
-      </c>
-      <c r="G157" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F158" t="n">
-        <v>303599</v>
-      </c>
-      <c r="G158" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F159" t="n">
-        <v>129367</v>
-      </c>
-      <c r="G159" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F160" t="n">
-        <v>8159</v>
-      </c>
-      <c r="G160" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3892</v>
-      </c>
-      <c r="G161" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F162" t="n">
-        <v>4216</v>
-      </c>
-      <c r="G162" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F163" t="n">
-        <v>31292</v>
-      </c>
-      <c r="G163" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F164" t="n">
-        <v>178756.551363921</v>
-      </c>
-      <c r="G164" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F165" t="n">
-        <v>5489</v>
-      </c>
-      <c r="G165" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F166" t="n">
-        <v>4755</v>
-      </c>
-      <c r="G166" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F167" t="n">
-        <v>125000</v>
-      </c>
-      <c r="G167" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F168" t="n">
-        <v>53507</v>
-      </c>
-      <c r="G168" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4682</v>
-      </c>
-      <c r="G169" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F170" t="n">
-        <v>4244</v>
-      </c>
-      <c r="G170" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F171" t="n">
-        <v>81048</v>
-      </c>
-      <c r="G171" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F172" t="n">
-        <v>104408.4134</v>
-      </c>
-      <c r="G172" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F173" t="n">
-        <v>4722</v>
-      </c>
-      <c r="G173" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F174" t="n">
-        <v>4311</v>
-      </c>
-      <c r="G174" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10081</v>
-      </c>
-      <c r="G175" t="n">
-        <v>317795399.0672216</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.4859</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.4859</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="F176" t="n">
-        <v>33664</v>
-      </c>
-      <c r="G176" t="n">
-        <v>317829063.0672216</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.4758</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.4758</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.4859</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.4757</v>
-      </c>
-      <c r="F177" t="n">
-        <v>653458</v>
-      </c>
-      <c r="G177" t="n">
-        <v>317175605.0672216</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.4758</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.4823</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.4858</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.4758</v>
-      </c>
-      <c r="F178" t="n">
-        <v>200270</v>
-      </c>
-      <c r="G178" t="n">
-        <v>317375875.0672216</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.4758</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.4758</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.4758</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.4758</v>
-      </c>
-      <c r="F179" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G179" t="n">
-        <v>317325875.0672216</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.4858</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.4859</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.4758</v>
-      </c>
-      <c r="F180" t="n">
-        <v>125000</v>
-      </c>
-      <c r="G180" t="n">
-        <v>317450875.0672216</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.4857</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.4857</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.4857</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.4857</v>
-      </c>
-      <c r="F181" t="n">
-        <v>4158.945851348569</v>
-      </c>
-      <c r="G181" t="n">
-        <v>317446716.1213703</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.4857</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.4857</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.4857</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.4857</v>
-      </c>
-      <c r="F182" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G182" t="n">
-        <v>317446716.1213703</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.4856</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.4856</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.4856</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.4856</v>
-      </c>
-      <c r="F183" t="n">
-        <v>217857.5595</v>
-      </c>
-      <c r="G183" t="n">
-        <v>317228858.5618703</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.4828</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.4828</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.4828</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.4828</v>
-      </c>
-      <c r="F184" t="n">
-        <v>121850</v>
-      </c>
-      <c r="G184" t="n">
-        <v>317107008.5618703</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.4721</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.4821</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.4721</v>
-      </c>
-      <c r="F185" t="n">
-        <v>128126.69</v>
-      </c>
-      <c r="G185" t="n">
-        <v>316978881.8718703</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="F186" t="n">
-        <v>3141.4162</v>
-      </c>
-      <c r="G186" t="n">
-        <v>316982023.2880703</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
+      <c r="N144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest OCN.xlsx
+++ b/BackTest/2020-01-22 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4782</v>
+        <v>0.4787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4781</v>
+        <v>0.4787</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4782</v>
+        <v>0.4787</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4781</v>
+        <v>0.4787</v>
       </c>
       <c r="F2" t="n">
-        <v>13733</v>
+        <v>238400</v>
       </c>
       <c r="G2" t="n">
-        <v>316202602.2866216</v>
+        <v>-1416079.122578349</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4783</v>
+        <v>0.4786</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4783</v>
+        <v>0.4787</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4783</v>
+        <v>0.4787</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4783</v>
+        <v>0.4786</v>
       </c>
       <c r="F3" t="n">
-        <v>7327</v>
+        <v>389185.1963</v>
       </c>
       <c r="G3" t="n">
-        <v>316209929.2866216</v>
+        <v>-1416079.122578349</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.478</v>
+        <v>0.4687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.478</v>
+        <v>0.4687</v>
       </c>
       <c r="D4" t="n">
-        <v>0.478</v>
+        <v>0.4687</v>
       </c>
       <c r="E4" t="n">
-        <v>0.478</v>
+        <v>0.4687</v>
       </c>
       <c r="F4" t="n">
-        <v>6271</v>
+        <v>7802.8277</v>
       </c>
       <c r="G4" t="n">
-        <v>316203658.2866216</v>
+        <v>-1423881.950278349</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="E5" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="F5" t="n">
-        <v>8662</v>
+        <v>10400</v>
       </c>
       <c r="G5" t="n">
-        <v>316203658.2866216</v>
+        <v>-1413481.950278349</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="C6" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="D6" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="E6" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="F6" t="n">
-        <v>6329</v>
+        <v>2087.6827</v>
       </c>
       <c r="G6" t="n">
-        <v>316203658.2866216</v>
+        <v>-1413481.950278349</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="C7" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="D7" t="n">
-        <v>0.478</v>
+        <v>0.4791</v>
       </c>
       <c r="E7" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="F7" t="n">
-        <v>12642</v>
+        <v>27764.9999</v>
       </c>
       <c r="G7" t="n">
-        <v>316203658.2866216</v>
+        <v>-1441246.950178349</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="C8" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="D8" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="E8" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="F8" t="n">
-        <v>4206</v>
+        <v>2087.6827</v>
       </c>
       <c r="G8" t="n">
-        <v>316203658.2866216</v>
+        <v>-1439159.267478349</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="D9" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="E9" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="F9" t="n">
-        <v>6406</v>
+        <v>7272</v>
       </c>
       <c r="G9" t="n">
-        <v>316203658.2866216</v>
+        <v>-1439159.267478349</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="E10" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="F10" t="n">
-        <v>3754</v>
+        <v>3614</v>
       </c>
       <c r="G10" t="n">
-        <v>316203658.2866216</v>
+        <v>-1439159.267478349</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="C11" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="E11" t="n">
-        <v>0.478</v>
+        <v>0.4792</v>
       </c>
       <c r="F11" t="n">
-        <v>3698</v>
+        <v>9071</v>
       </c>
       <c r="G11" t="n">
-        <v>316203658.2866216</v>
+        <v>-1439159.267478349</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.477</v>
+        <v>0.4792</v>
       </c>
       <c r="C12" t="n">
-        <v>0.477</v>
+        <v>0.4792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.477</v>
+        <v>0.4792</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4769</v>
+        <v>0.4792</v>
       </c>
       <c r="F12" t="n">
-        <v>218661</v>
+        <v>9266</v>
       </c>
       <c r="G12" t="n">
-        <v>315984997.2866216</v>
+        <v>-1439159.267478349</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4778</v>
+        <v>0.4791</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4784</v>
+        <v>0.4791</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4778</v>
+        <v>0.4791</v>
       </c>
       <c r="F13" t="n">
-        <v>58954</v>
+        <v>4068</v>
       </c>
       <c r="G13" t="n">
-        <v>316043951.2866216</v>
+        <v>-1443227.267478349</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4783</v>
+        <v>0.4792</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4783</v>
+        <v>0.4792</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4783</v>
+        <v>0.4792</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4783</v>
+        <v>0.4792</v>
       </c>
       <c r="F14" t="n">
-        <v>8679</v>
+        <v>10542</v>
       </c>
       <c r="G14" t="n">
-        <v>316035272.2866216</v>
+        <v>-1432685.267478349</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="F15" t="n">
-        <v>10388</v>
+        <v>4260</v>
       </c>
       <c r="G15" t="n">
-        <v>316045660.2866216</v>
+        <v>-1432685.267478349</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4784</v>
+        <v>0.4792</v>
       </c>
       <c r="F16" t="n">
-        <v>5045</v>
+        <v>4435</v>
       </c>
       <c r="G16" t="n">
-        <v>316045660.2866216</v>
+        <v>-1432685.267478349</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4783</v>
+        <v>0.4792</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4783</v>
+        <v>0.4792</v>
       </c>
       <c r="F17" t="n">
-        <v>2104845</v>
+        <v>6183</v>
       </c>
       <c r="G17" t="n">
-        <v>318150505.2866216</v>
+        <v>-1432685.267478349</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F18" t="n">
-        <v>3600</v>
+        <v>4708</v>
       </c>
       <c r="G18" t="n">
-        <v>318150505.2866216</v>
+        <v>-1432685.267478349</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F19" t="n">
-        <v>6860</v>
+        <v>13051</v>
       </c>
       <c r="G19" t="n">
-        <v>318150505.2866216</v>
+        <v>-1432685.267478349</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F20" t="n">
-        <v>3997</v>
+        <v>5526</v>
       </c>
       <c r="G20" t="n">
-        <v>318150505.2866216</v>
+        <v>-1432685.267478349</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F21" t="n">
-        <v>9542</v>
+        <v>5498</v>
       </c>
       <c r="G21" t="n">
-        <v>318150505.2866216</v>
+        <v>-1432685.267478349</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F22" t="n">
-        <v>5677</v>
+        <v>4098</v>
       </c>
       <c r="G22" t="n">
-        <v>318150505.2866216</v>
+        <v>-1436783.267478349</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F23" t="n">
-        <v>9191</v>
+        <v>4011</v>
       </c>
       <c r="G23" t="n">
-        <v>318150505.2866216</v>
+        <v>-1436783.267478349</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F24" t="n">
-        <v>10638</v>
+        <v>15713.8</v>
       </c>
       <c r="G24" t="n">
-        <v>318150505.2866216</v>
+        <v>-1436783.267478349</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F25" t="n">
-        <v>5296</v>
+        <v>5332</v>
       </c>
       <c r="G25" t="n">
-        <v>318150505.2866216</v>
+        <v>-1436783.267478349</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F26" t="n">
-        <v>6220</v>
+        <v>11885</v>
       </c>
       <c r="G26" t="n">
-        <v>318150505.2866216</v>
+        <v>-1436783.267478349</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4785</v>
+        <v>0.4791</v>
       </c>
       <c r="F27" t="n">
-        <v>3581</v>
+        <v>10703</v>
       </c>
       <c r="G27" t="n">
-        <v>318150505.2866216</v>
+        <v>-1436783.267478349</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F28" t="n">
-        <v>10137</v>
+        <v>3500</v>
       </c>
       <c r="G28" t="n">
-        <v>318150505.2866216</v>
+        <v>-1433283.267478349</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F29" t="n">
-        <v>3754</v>
+        <v>3495</v>
       </c>
       <c r="G29" t="n">
-        <v>318150505.2866216</v>
+        <v>-1433283.267478349</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F30" t="n">
-        <v>118294</v>
+        <v>3490</v>
       </c>
       <c r="G30" t="n">
-        <v>318150505.2866216</v>
+        <v>-1433283.267478349</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="C31" t="n">
         <v>0.4792</v>
@@ -1491,13 +1491,13 @@
         <v>0.4792</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4785</v>
+        <v>0.4792</v>
       </c>
       <c r="F31" t="n">
-        <v>50000</v>
+        <v>53807.1752</v>
       </c>
       <c r="G31" t="n">
-        <v>318200505.2866216</v>
+        <v>-1433283.267478349</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0.4792</v>
       </c>
       <c r="F32" t="n">
-        <v>4860</v>
+        <v>4148</v>
       </c>
       <c r="G32" t="n">
-        <v>318200505.2866216</v>
+        <v>-1433283.267478349</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F33" t="n">
-        <v>4441</v>
+        <v>4174.4939</v>
       </c>
       <c r="G33" t="n">
-        <v>318200505.2866216</v>
+        <v>-1437457.761378349</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4792</v>
+        <v>0.4791</v>
       </c>
       <c r="F34" t="n">
-        <v>4590</v>
+        <v>5347</v>
       </c>
       <c r="G34" t="n">
-        <v>318200505.2866216</v>
+        <v>-1437457.761378349</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="F35" t="n">
-        <v>4969</v>
+        <v>2087.6827</v>
       </c>
       <c r="G35" t="n">
-        <v>318200505.2866216</v>
+        <v>-1439545.444078349</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4792</v>
+        <v>0.4789</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4792</v>
+        <v>0.4789</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4792</v>
+        <v>0.4687</v>
       </c>
       <c r="F36" t="n">
-        <v>4075</v>
+        <v>117212.2556</v>
       </c>
       <c r="G36" t="n">
-        <v>318200505.2866216</v>
+        <v>-1556757.699678349</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="F37" t="n">
-        <v>10113</v>
+        <v>7455</v>
       </c>
       <c r="G37" t="n">
-        <v>318200505.2866216</v>
+        <v>-1564212.699678349</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,31 +1734,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4792</v>
+        <v>0.4786</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4792</v>
+        <v>0.4786</v>
       </c>
       <c r="F38" t="n">
-        <v>13060</v>
+        <v>10978</v>
       </c>
       <c r="G38" t="n">
-        <v>318200505.2866216</v>
+        <v>-1553234.699678349</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.47</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1770,22 +1774,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="F39" t="n">
-        <v>9636</v>
+        <v>3657</v>
       </c>
       <c r="G39" t="n">
-        <v>318200505.2866216</v>
+        <v>-1549577.699678349</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1816,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="F40" t="n">
-        <v>5063</v>
+        <v>10677</v>
       </c>
       <c r="G40" t="n">
-        <v>318200505.2866216</v>
+        <v>-1560254.699678349</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +1840,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="F41" t="n">
-        <v>7751</v>
+        <v>9483</v>
       </c>
       <c r="G41" t="n">
-        <v>318200505.2866216</v>
+        <v>-1550771.699678349</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1894,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="F42" t="n">
-        <v>6309</v>
+        <v>6844</v>
       </c>
       <c r="G42" t="n">
-        <v>318200505.2866216</v>
+        <v>-1557615.699678349</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1930,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4792</v>
+        <v>0.4786</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4792</v>
+        <v>0.4786</v>
       </c>
       <c r="F43" t="n">
-        <v>89809.4875</v>
+        <v>15541</v>
       </c>
       <c r="G43" t="n">
-        <v>318200505.2866216</v>
+        <v>-1542074.699678349</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1966,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="F44" t="n">
-        <v>5642</v>
+        <v>2088.5548</v>
       </c>
       <c r="G44" t="n">
-        <v>318200505.2866216</v>
+        <v>-1542074.699678349</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2002,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="F45" t="n">
-        <v>11859</v>
+        <v>1057.0295</v>
       </c>
       <c r="G45" t="n">
-        <v>318200505.2866216</v>
+        <v>-1543131.729178349</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2038,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="F46" t="n">
-        <v>4211</v>
+        <v>6430</v>
       </c>
       <c r="G46" t="n">
-        <v>318200505.2866216</v>
+        <v>-1549561.729178349</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2074,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="F47" t="n">
-        <v>5014</v>
+        <v>12181</v>
       </c>
       <c r="G47" t="n">
-        <v>318200505.2866216</v>
+        <v>-1537380.729178349</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2110,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="F48" t="n">
-        <v>11588</v>
+        <v>18695</v>
       </c>
       <c r="G48" t="n">
-        <v>318200505.2866216</v>
+        <v>-1556075.729178349</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2146,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="F49" t="n">
-        <v>12591</v>
+        <v>960052184</v>
       </c>
       <c r="G49" t="n">
-        <v>318200505.2866216</v>
+        <v>958496108.2708217</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2182,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4792</v>
+        <v>0.4787</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4792</v>
+        <v>0.4788</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4792</v>
+        <v>0.47</v>
       </c>
       <c r="F50" t="n">
-        <v>11185</v>
+        <v>638639809.973</v>
       </c>
       <c r="G50" t="n">
-        <v>318200505.2866216</v>
+        <v>319856298.2978216</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2218,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4709</v>
+        <v>0.4787</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4709</v>
+        <v>0.4787</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4709</v>
+        <v>0.4787</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4709</v>
+        <v>0.4787</v>
       </c>
       <c r="F51" t="n">
-        <v>99124.9357</v>
+        <v>81076.18459999999</v>
       </c>
       <c r="G51" t="n">
-        <v>318101380.3509216</v>
+        <v>319856298.2978216</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2254,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4791</v>
+        <v>0.47</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4791</v>
+        <v>0.47</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4791</v>
+        <v>0.47</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4791</v>
+        <v>0.47</v>
       </c>
       <c r="F52" t="n">
-        <v>5018</v>
+        <v>93134.5273</v>
       </c>
       <c r="G52" t="n">
-        <v>318106398.3509216</v>
+        <v>319763163.7705216</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2290,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4791</v>
+        <v>0.4788</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4791</v>
+        <v>0.4788</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4791</v>
+        <v>0.4788</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4791</v>
+        <v>0.4788</v>
       </c>
       <c r="F53" t="n">
-        <v>4424</v>
+        <v>500000</v>
       </c>
       <c r="G53" t="n">
-        <v>318106398.3509216</v>
+        <v>320263163.7705216</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2326,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4791</v>
+        <v>0.4787</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4791</v>
+        <v>0.4792</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4791</v>
+        <v>0.4792</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4791</v>
+        <v>0.4787</v>
       </c>
       <c r="F54" t="n">
-        <v>10574</v>
+        <v>75000</v>
       </c>
       <c r="G54" t="n">
-        <v>318106398.3509216</v>
+        <v>320338163.7705216</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2362,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4791</v>
+        <v>0.4792</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4791</v>
+        <v>0.4792</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4791</v>
+        <v>0.4792</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4791</v>
+        <v>0.4792</v>
       </c>
       <c r="F55" t="n">
-        <v>8468</v>
+        <v>20050</v>
       </c>
       <c r="G55" t="n">
-        <v>318106398.3509216</v>
+        <v>320338163.7705216</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2398,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4791</v>
+        <v>0.4715</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4791</v>
+        <v>0.471</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4791</v>
+        <v>0.4715</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4791</v>
+        <v>0.471</v>
       </c>
       <c r="F56" t="n">
-        <v>11776</v>
+        <v>4220254.9574</v>
       </c>
       <c r="G56" t="n">
-        <v>318106398.3509216</v>
+        <v>316117908.8131216</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2430,10 +2446,10 @@
         <v>0.4791</v>
       </c>
       <c r="F57" t="n">
-        <v>13199</v>
+        <v>150000</v>
       </c>
       <c r="G57" t="n">
-        <v>318106398.3509216</v>
+        <v>316267908.8131216</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2466,10 +2482,10 @@
         <v>0.4791</v>
       </c>
       <c r="F58" t="n">
-        <v>3788</v>
+        <v>6996</v>
       </c>
       <c r="G58" t="n">
-        <v>318106398.3509216</v>
+        <v>316267908.8131216</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2506,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="F59" t="n">
-        <v>5163</v>
+        <v>11824</v>
       </c>
       <c r="G59" t="n">
-        <v>318106398.3509216</v>
+        <v>316256084.8131216</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2542,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="F60" t="n">
-        <v>4684</v>
+        <v>19091</v>
       </c>
       <c r="G60" t="n">
-        <v>318106398.3509216</v>
+        <v>316256084.8131216</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2578,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="F61" t="n">
-        <v>8191</v>
+        <v>5691</v>
       </c>
       <c r="G61" t="n">
-        <v>318106398.3509216</v>
+        <v>316256084.8131216</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2614,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="F62" t="n">
-        <v>6266</v>
+        <v>3848</v>
       </c>
       <c r="G62" t="n">
-        <v>318106398.3509216</v>
+        <v>316256084.8131216</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2650,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4791</v>
+        <v>0.4779</v>
       </c>
       <c r="F63" t="n">
-        <v>6337</v>
+        <v>4133</v>
       </c>
       <c r="G63" t="n">
-        <v>318106398.3509216</v>
+        <v>316256084.8131216</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2686,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4791</v>
+        <v>0.479</v>
       </c>
       <c r="F64" t="n">
-        <v>3864</v>
+        <v>16640.2782</v>
       </c>
       <c r="G64" t="n">
-        <v>318106398.3509216</v>
+        <v>316272725.0913216</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2722,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4791</v>
+        <v>0.47</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4791</v>
+        <v>0.47</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4791</v>
+        <v>0.47</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4791</v>
+        <v>0.47</v>
       </c>
       <c r="F65" t="n">
-        <v>11744</v>
+        <v>57033.8047</v>
       </c>
       <c r="G65" t="n">
-        <v>318106398.3509216</v>
+        <v>316215691.2866216</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2758,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="F66" t="n">
-        <v>10892</v>
+        <v>4520</v>
       </c>
       <c r="G66" t="n">
-        <v>318117290.3509216</v>
+        <v>316220211.2866216</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2794,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="F67" t="n">
-        <v>8398</v>
+        <v>4474</v>
       </c>
       <c r="G67" t="n">
-        <v>318117290.3509216</v>
+        <v>316220211.2866216</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2830,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4792</v>
+        <v>0.479</v>
       </c>
       <c r="F68" t="n">
-        <v>11104</v>
+        <v>4835</v>
       </c>
       <c r="G68" t="n">
-        <v>318117290.3509216</v>
+        <v>316220211.2866216</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2866,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="F69" t="n">
-        <v>11589</v>
+        <v>3876</v>
       </c>
       <c r="G69" t="n">
-        <v>318117290.3509216</v>
+        <v>316216335.2866216</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2902,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="F70" t="n">
-        <v>4594</v>
+        <v>7245</v>
       </c>
       <c r="G70" t="n">
-        <v>318117290.3509216</v>
+        <v>316216335.2866216</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2938,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="F71" t="n">
-        <v>8766</v>
+        <v>4831</v>
       </c>
       <c r="G71" t="n">
-        <v>318117290.3509216</v>
+        <v>316216335.2866216</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2974,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="F72" t="n">
-        <v>4217</v>
+        <v>6422</v>
       </c>
       <c r="G72" t="n">
-        <v>318117290.3509216</v>
+        <v>316216335.2866216</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3010,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4792</v>
+        <v>0.4782</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4792</v>
+        <v>0.4781</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4792</v>
+        <v>0.4782</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4792</v>
+        <v>0.4781</v>
       </c>
       <c r="F73" t="n">
-        <v>60926.3413</v>
+        <v>13733</v>
       </c>
       <c r="G73" t="n">
-        <v>318117290.3509216</v>
+        <v>316202602.2866216</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3046,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="F74" t="n">
-        <v>4766</v>
+        <v>7327</v>
       </c>
       <c r="G74" t="n">
-        <v>318117290.3509216</v>
+        <v>316209929.2866216</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3082,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F75" t="n">
-        <v>11378</v>
+        <v>6271</v>
       </c>
       <c r="G75" t="n">
-        <v>318117290.3509216</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3118,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.471</v>
+        <v>0.478</v>
       </c>
       <c r="C76" t="n">
-        <v>0.471</v>
+        <v>0.478</v>
       </c>
       <c r="D76" t="n">
-        <v>0.471</v>
+        <v>0.478</v>
       </c>
       <c r="E76" t="n">
-        <v>0.471</v>
+        <v>0.478</v>
       </c>
       <c r="F76" t="n">
-        <v>63583.2521</v>
+        <v>8662</v>
       </c>
       <c r="G76" t="n">
-        <v>318053707.0988216</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3154,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F77" t="n">
-        <v>7686</v>
+        <v>6329</v>
       </c>
       <c r="G77" t="n">
-        <v>318061393.0988216</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3190,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F78" t="n">
-        <v>4678</v>
+        <v>12642</v>
       </c>
       <c r="G78" t="n">
-        <v>318061393.0988216</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3226,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4788</v>
+        <v>0.478</v>
       </c>
       <c r="F79" t="n">
-        <v>3604</v>
+        <v>4206</v>
       </c>
       <c r="G79" t="n">
-        <v>318057789.0988216</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3262,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F80" t="n">
-        <v>5674</v>
+        <v>6406</v>
       </c>
       <c r="G80" t="n">
-        <v>318063463.0988216</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3298,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F81" t="n">
-        <v>8369</v>
+        <v>3754</v>
       </c>
       <c r="G81" t="n">
-        <v>318063463.0988216</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3334,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4792</v>
+        <v>0.478</v>
       </c>
       <c r="F82" t="n">
-        <v>3618</v>
+        <v>3698</v>
       </c>
       <c r="G82" t="n">
-        <v>318063463.0988216</v>
+        <v>316203658.2866216</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3370,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4792</v>
+        <v>0.477</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4792</v>
+        <v>0.477</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4792</v>
+        <v>0.477</v>
       </c>
       <c r="E83" t="n">
-        <v>0.471</v>
+        <v>0.4769</v>
       </c>
       <c r="F83" t="n">
-        <v>86348</v>
+        <v>218661</v>
       </c>
       <c r="G83" t="n">
-        <v>318063463.0988216</v>
+        <v>315984997.2866216</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3406,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4792</v>
+        <v>0.4778</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4792</v>
+        <v>0.4778</v>
       </c>
       <c r="F84" t="n">
-        <v>527129.8380634391</v>
+        <v>58954</v>
       </c>
       <c r="G84" t="n">
-        <v>318063463.0988216</v>
+        <v>316043951.2866216</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,28 +3442,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="F85" t="n">
-        <v>6189</v>
+        <v>8679</v>
       </c>
       <c r="G85" t="n">
-        <v>318063463.0988216</v>
+        <v>316035272.2866216</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,28 +3478,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="F86" t="n">
-        <v>3770</v>
+        <v>10388</v>
       </c>
       <c r="G86" t="n">
-        <v>318063463.0988216</v>
+        <v>316045660.2866216</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3498,22 +3514,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4792</v>
+        <v>0.4784</v>
       </c>
       <c r="F87" t="n">
-        <v>33943</v>
+        <v>5045</v>
       </c>
       <c r="G87" t="n">
-        <v>318063463.0988216</v>
+        <v>316045660.2866216</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3550,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4792</v>
+        <v>0.4783</v>
       </c>
       <c r="F88" t="n">
-        <v>150590</v>
+        <v>2104845</v>
       </c>
       <c r="G88" t="n">
-        <v>318063463.0988216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3586,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4792</v>
+        <v>0.4785</v>
       </c>
       <c r="F89" t="n">
-        <v>24943.6</v>
+        <v>3600</v>
       </c>
       <c r="G89" t="n">
-        <v>318063463.0988216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3622,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4791</v>
+        <v>0.4785</v>
       </c>
       <c r="F90" t="n">
-        <v>30000</v>
+        <v>6860</v>
       </c>
       <c r="G90" t="n">
-        <v>318033463.0988216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,28 +3658,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="C91" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="D91" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="E91" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="F91" t="n">
-        <v>5669</v>
+        <v>3997</v>
       </c>
       <c r="G91" t="n">
-        <v>318027794.0988216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,28 +3694,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4789</v>
+        <v>0.4785</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4789</v>
+        <v>0.4785</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4788</v>
+        <v>0.4785</v>
       </c>
       <c r="F92" t="n">
-        <v>8007</v>
+        <v>9542</v>
       </c>
       <c r="G92" t="n">
-        <v>318019787.0988216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,28 +3730,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4787</v>
+        <v>0.4785</v>
       </c>
       <c r="F93" t="n">
-        <v>9087</v>
+        <v>5677</v>
       </c>
       <c r="G93" t="n">
-        <v>318010700.0988216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3750,28 +3766,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.472</v>
+        <v>0.4785</v>
       </c>
       <c r="C94" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="D94" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="E94" t="n">
-        <v>0.472</v>
+        <v>0.4785</v>
       </c>
       <c r="F94" t="n">
-        <v>129558.1515</v>
+        <v>9191</v>
       </c>
       <c r="G94" t="n">
-        <v>318140258.2503216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3786,35 +3802,31 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4719</v>
+        <v>0.4785</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4719</v>
+        <v>0.4785</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4719</v>
+        <v>0.4785</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4719</v>
+        <v>0.4785</v>
       </c>
       <c r="F95" t="n">
-        <v>1999</v>
+        <v>10638</v>
       </c>
       <c r="G95" t="n">
-        <v>318138259.2503216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.479</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
@@ -3826,40 +3838,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="C96" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="D96" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="E96" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="F96" t="n">
-        <v>10097</v>
+        <v>5296</v>
       </c>
       <c r="G96" t="n">
-        <v>318148356.2503216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.4719</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3870,40 +3874,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="C97" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="D97" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="E97" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="F97" t="n">
-        <v>6484</v>
+        <v>6220</v>
       </c>
       <c r="G97" t="n">
-        <v>318148356.2503216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3914,22 +3910,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="C98" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="D98" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="E98" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="F98" t="n">
-        <v>7342</v>
+        <v>3581</v>
       </c>
       <c r="G98" t="n">
-        <v>318148356.2503216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3950,22 +3946,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="C99" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="D99" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="E99" t="n">
-        <v>0.479</v>
+        <v>0.4785</v>
       </c>
       <c r="F99" t="n">
-        <v>4031</v>
+        <v>10137</v>
       </c>
       <c r="G99" t="n">
-        <v>318148356.2503216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3986,22 +3982,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4722</v>
+        <v>0.4785</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4722</v>
+        <v>0.4785</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4722</v>
+        <v>0.4785</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4722</v>
+        <v>0.4785</v>
       </c>
       <c r="F100" t="n">
-        <v>186991.1831</v>
+        <v>3754</v>
       </c>
       <c r="G100" t="n">
-        <v>317961365.0672216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4022,22 +4018,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4778</v>
+        <v>0.4785</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4778</v>
+        <v>0.4785</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4778</v>
+        <v>0.4785</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4778</v>
+        <v>0.4785</v>
       </c>
       <c r="F101" t="n">
-        <v>6579</v>
+        <v>118294</v>
       </c>
       <c r="G101" t="n">
-        <v>317967944.0672216</v>
+        <v>318150505.2866216</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4058,22 +4054,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4764</v>
+        <v>0.4785</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4764</v>
+        <v>0.4792</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4764</v>
+        <v>0.4792</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4764</v>
+        <v>0.4785</v>
       </c>
       <c r="F102" t="n">
-        <v>6382</v>
+        <v>50000</v>
       </c>
       <c r="G102" t="n">
-        <v>317961562.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4094,22 +4090,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4753</v>
+        <v>0.4792</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4753</v>
+        <v>0.4792</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4753</v>
+        <v>0.4792</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4753</v>
+        <v>0.4792</v>
       </c>
       <c r="F103" t="n">
-        <v>4295</v>
+        <v>4860</v>
       </c>
       <c r="G103" t="n">
-        <v>317957267.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4130,22 +4126,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4746</v>
+        <v>0.4792</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4744</v>
+        <v>0.4792</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4746</v>
+        <v>0.4792</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4744</v>
+        <v>0.4792</v>
       </c>
       <c r="F104" t="n">
-        <v>175000</v>
+        <v>4441</v>
       </c>
       <c r="G104" t="n">
-        <v>317782267.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4166,38 +4162,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4744</v>
+        <v>0.4792</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4744</v>
+        <v>0.4792</v>
       </c>
       <c r="F105" t="n">
-        <v>13132</v>
+        <v>4590</v>
       </c>
       <c r="G105" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.4744</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4208,22 +4198,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F106" t="n">
-        <v>17114.6833</v>
+        <v>4969</v>
       </c>
       <c r="G106" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4233,11 +4223,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4248,38 +4234,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F107" t="n">
-        <v>2892.9147</v>
+        <v>4075</v>
       </c>
       <c r="G107" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4290,22 +4270,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F108" t="n">
-        <v>8090</v>
+        <v>10113</v>
       </c>
       <c r="G108" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4315,11 +4295,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4330,38 +4306,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F109" t="n">
-        <v>4308</v>
+        <v>13060</v>
       </c>
       <c r="G109" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4372,38 +4342,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F110" t="n">
-        <v>3782</v>
+        <v>9636</v>
       </c>
       <c r="G110" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4414,38 +4378,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F111" t="n">
-        <v>71435.7709</v>
+        <v>5063</v>
       </c>
       <c r="G111" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4456,38 +4414,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F112" t="n">
-        <v>3819</v>
+        <v>7751</v>
       </c>
       <c r="G112" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4498,38 +4450,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F113" t="n">
-        <v>4917</v>
+        <v>6309</v>
       </c>
       <c r="G113" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4540,38 +4486,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F114" t="n">
-        <v>4875</v>
+        <v>89809.4875</v>
       </c>
       <c r="G114" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4582,38 +4522,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F115" t="n">
-        <v>9108</v>
+        <v>5642</v>
       </c>
       <c r="G115" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4624,38 +4558,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F116" t="n">
-        <v>303599</v>
+        <v>11859</v>
       </c>
       <c r="G116" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4666,38 +4594,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F117" t="n">
-        <v>129367</v>
+        <v>4211</v>
       </c>
       <c r="G117" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4708,38 +4630,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F118" t="n">
-        <v>8159</v>
+        <v>5014</v>
       </c>
       <c r="G118" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4750,38 +4666,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F119" t="n">
-        <v>3892</v>
+        <v>11588</v>
       </c>
       <c r="G119" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.4792</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4792,36 +4706,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F120" t="n">
-        <v>4216</v>
+        <v>12591</v>
       </c>
       <c r="G120" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+        <v>0.4792</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.4792</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -4834,36 +4750,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="F121" t="n">
-        <v>31292</v>
+        <v>11185</v>
       </c>
       <c r="G121" t="n">
-        <v>317795399.0672216</v>
+        <v>318200505.2866216</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>0.4792</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.4792</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -4876,38 +4794,36 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4759</v>
+        <v>0.4709</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4759</v>
+        <v>0.4709</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4759</v>
+        <v>0.4709</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4759</v>
+        <v>0.4709</v>
       </c>
       <c r="F122" t="n">
-        <v>178756.551363921</v>
+        <v>99124.9357</v>
       </c>
       <c r="G122" t="n">
-        <v>317795399.0672216</v>
+        <v>318101380.3509216</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.4792</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4918,22 +4834,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F123" t="n">
-        <v>5489</v>
+        <v>5018</v>
       </c>
       <c r="G123" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -4942,12 +4858,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+        <v>0.4709</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.4792</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -4960,36 +4878,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F124" t="n">
-        <v>4755</v>
+        <v>4424</v>
       </c>
       <c r="G124" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4759</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+        <v>0.4791</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.4792</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -5002,38 +4922,32 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F125" t="n">
-        <v>125000</v>
+        <v>10574</v>
       </c>
       <c r="G125" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5044,38 +4958,32 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F126" t="n">
-        <v>53507</v>
+        <v>8468</v>
       </c>
       <c r="G126" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5086,38 +4994,32 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F127" t="n">
-        <v>4682</v>
+        <v>11776</v>
       </c>
       <c r="G127" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5128,22 +5030,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F128" t="n">
-        <v>4244</v>
+        <v>13199</v>
       </c>
       <c r="G128" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5153,11 +5055,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5168,38 +5066,32 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F129" t="n">
-        <v>81048</v>
+        <v>3788</v>
       </c>
       <c r="G129" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.4759</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5210,22 +5102,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F130" t="n">
-        <v>104408.4134</v>
+        <v>5163</v>
       </c>
       <c r="G130" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5235,11 +5127,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5250,22 +5138,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F131" t="n">
-        <v>4722</v>
+        <v>4684</v>
       </c>
       <c r="G131" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5275,11 +5163,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5290,22 +5174,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F132" t="n">
-        <v>4311</v>
+        <v>8191</v>
       </c>
       <c r="G132" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5315,11 +5199,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5330,22 +5210,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F133" t="n">
-        <v>10081</v>
+        <v>6266</v>
       </c>
       <c r="G133" t="n">
-        <v>317795399.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5355,11 +5235,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5370,36 +5246,36 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4859</v>
+        <v>0.4791</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4859</v>
+        <v>0.4791</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4759</v>
+        <v>0.4791</v>
       </c>
       <c r="F134" t="n">
-        <v>33664</v>
+        <v>6337</v>
       </c>
       <c r="G134" t="n">
-        <v>317829063.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5410,34 +5286,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4758</v>
+        <v>0.4791</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4758</v>
+        <v>0.4791</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4859</v>
+        <v>0.4791</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4757</v>
+        <v>0.4791</v>
       </c>
       <c r="F135" t="n">
-        <v>653458</v>
+        <v>3864</v>
       </c>
       <c r="G135" t="n">
-        <v>317175605.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -5450,22 +5330,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4758</v>
+        <v>0.4791</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4823</v>
+        <v>0.4791</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4858</v>
+        <v>0.4791</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4758</v>
+        <v>0.4791</v>
       </c>
       <c r="F136" t="n">
-        <v>200270</v>
+        <v>11744</v>
       </c>
       <c r="G136" t="n">
-        <v>317375875.0672216</v>
+        <v>318106398.3509216</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5474,10 +5354,12 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -5490,22 +5372,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4758</v>
+        <v>0.4792</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4758</v>
+        <v>0.4792</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4758</v>
+        <v>0.4792</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4758</v>
+        <v>0.4792</v>
       </c>
       <c r="F137" t="n">
-        <v>50000</v>
+        <v>10892</v>
       </c>
       <c r="G137" t="n">
-        <v>317325875.0672216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5515,11 +5397,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5530,22 +5408,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4759</v>
+        <v>0.4792</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4858</v>
+        <v>0.4792</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4859</v>
+        <v>0.4792</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4758</v>
+        <v>0.4792</v>
       </c>
       <c r="F138" t="n">
-        <v>125000</v>
+        <v>8398</v>
       </c>
       <c r="G138" t="n">
-        <v>317450875.0672216</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5555,11 +5433,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5570,22 +5444,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4857</v>
+        <v>0.4792</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4857</v>
+        <v>0.4792</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4857</v>
+        <v>0.4792</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4857</v>
+        <v>0.4792</v>
       </c>
       <c r="F139" t="n">
-        <v>4158.945851348569</v>
+        <v>11104</v>
       </c>
       <c r="G139" t="n">
-        <v>317446716.1213703</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5595,11 +5469,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5610,22 +5480,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4857</v>
+        <v>0.4792</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4857</v>
+        <v>0.4792</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4857</v>
+        <v>0.4792</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4857</v>
+        <v>0.4792</v>
       </c>
       <c r="F140" t="n">
-        <v>5000</v>
+        <v>11589</v>
       </c>
       <c r="G140" t="n">
-        <v>317446716.1213703</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5635,11 +5505,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5650,37 +5516,35 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4856</v>
+        <v>0.4792</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4856</v>
+        <v>0.4792</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4856</v>
+        <v>0.4792</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4856</v>
+        <v>0.4792</v>
       </c>
       <c r="F141" t="n">
-        <v>217857.5595</v>
+        <v>4594</v>
       </c>
       <c r="G141" t="n">
-        <v>317228858.5618703</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
       <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -5688,28 +5552,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4828</v>
+        <v>0.4792</v>
       </c>
       <c r="C142" t="n">
-        <v>0.4828</v>
+        <v>0.4792</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4828</v>
+        <v>0.4792</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4828</v>
+        <v>0.4792</v>
       </c>
       <c r="F142" t="n">
-        <v>121850</v>
+        <v>8766</v>
       </c>
       <c r="G142" t="n">
-        <v>317107008.5618703</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5724,28 +5588,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.482</v>
+        <v>0.4792</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4721</v>
+        <v>0.4792</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4821</v>
+        <v>0.4792</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4721</v>
+        <v>0.4792</v>
       </c>
       <c r="F143" t="n">
-        <v>128126.69</v>
+        <v>4217</v>
       </c>
       <c r="G143" t="n">
-        <v>316978881.8718703</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5760,28 +5624,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.473</v>
+        <v>0.4792</v>
       </c>
       <c r="C144" t="n">
-        <v>0.473</v>
+        <v>0.4792</v>
       </c>
       <c r="D144" t="n">
-        <v>0.473</v>
+        <v>0.4792</v>
       </c>
       <c r="E144" t="n">
-        <v>0.473</v>
+        <v>0.4792</v>
       </c>
       <c r="F144" t="n">
-        <v>3141.4162</v>
+        <v>60926.3413</v>
       </c>
       <c r="G144" t="n">
-        <v>316982023.2880703</v>
+        <v>318117290.3509216</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5791,6 +5655,2578 @@
       </c>
       <c r="N144" t="inlineStr"/>
     </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4766</v>
+      </c>
+      <c r="G145" t="n">
+        <v>318117290.3509216</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11378</v>
+      </c>
+      <c r="G146" t="n">
+        <v>318117290.3509216</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="F147" t="n">
+        <v>63583.2521</v>
+      </c>
+      <c r="G147" t="n">
+        <v>318053707.0988216</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7686</v>
+      </c>
+      <c r="G148" t="n">
+        <v>318061393.0988216</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4678</v>
+      </c>
+      <c r="G149" t="n">
+        <v>318061393.0988216</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3604</v>
+      </c>
+      <c r="G150" t="n">
+        <v>318057789.0988216</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5674</v>
+      </c>
+      <c r="G151" t="n">
+        <v>318063463.0988216</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8369</v>
+      </c>
+      <c r="G152" t="n">
+        <v>318063463.0988216</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3618</v>
+      </c>
+      <c r="G153" t="n">
+        <v>318063463.0988216</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="F154" t="n">
+        <v>86348</v>
+      </c>
+      <c r="G154" t="n">
+        <v>318063463.0988216</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F155" t="n">
+        <v>527129.8380634391</v>
+      </c>
+      <c r="G155" t="n">
+        <v>318063463.0988216</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6189</v>
+      </c>
+      <c r="G156" t="n">
+        <v>318063463.0988216</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3770</v>
+      </c>
+      <c r="G157" t="n">
+        <v>318063463.0988216</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F158" t="n">
+        <v>33943</v>
+      </c>
+      <c r="G158" t="n">
+        <v>318063463.0988216</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F159" t="n">
+        <v>150590</v>
+      </c>
+      <c r="G159" t="n">
+        <v>318063463.0988216</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="F160" t="n">
+        <v>24943.6</v>
+      </c>
+      <c r="G160" t="n">
+        <v>318063463.0988216</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="F161" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>318033463.0988216</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5669</v>
+      </c>
+      <c r="G162" t="n">
+        <v>318027794.0988216</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.4789</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.4789</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8007</v>
+      </c>
+      <c r="G163" t="n">
+        <v>318019787.0988216</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9087</v>
+      </c>
+      <c r="G164" t="n">
+        <v>318010700.0988216</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="F165" t="n">
+        <v>129558.1515</v>
+      </c>
+      <c r="G165" t="n">
+        <v>318140258.2503216</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.4719</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.4719</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.4719</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.4719</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G166" t="n">
+        <v>318138259.2503216</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10097</v>
+      </c>
+      <c r="G167" t="n">
+        <v>318148356.2503216</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6484</v>
+      </c>
+      <c r="G168" t="n">
+        <v>318148356.2503216</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F169" t="n">
+        <v>7342</v>
+      </c>
+      <c r="G169" t="n">
+        <v>318148356.2503216</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4031</v>
+      </c>
+      <c r="G170" t="n">
+        <v>318148356.2503216</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="F171" t="n">
+        <v>186991.1831</v>
+      </c>
+      <c r="G171" t="n">
+        <v>317961365.0672216</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.4778</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.4778</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.4778</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.4778</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6579</v>
+      </c>
+      <c r="G172" t="n">
+        <v>317967944.0672216</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6382</v>
+      </c>
+      <c r="G173" t="n">
+        <v>317961562.0672216</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.4753</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4295</v>
+      </c>
+      <c r="G174" t="n">
+        <v>317957267.0672216</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.4746</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.4744</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.4746</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.4744</v>
+      </c>
+      <c r="F175" t="n">
+        <v>175000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>317782267.0672216</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.4744</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.4744</v>
+      </c>
+      <c r="F176" t="n">
+        <v>13132</v>
+      </c>
+      <c r="G176" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F177" t="n">
+        <v>17114.6833</v>
+      </c>
+      <c r="G177" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2892.9147</v>
+      </c>
+      <c r="G178" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8090</v>
+      </c>
+      <c r="G179" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4308</v>
+      </c>
+      <c r="G180" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3782</v>
+      </c>
+      <c r="G181" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F182" t="n">
+        <v>71435.7709</v>
+      </c>
+      <c r="G182" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3819</v>
+      </c>
+      <c r="G183" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4917</v>
+      </c>
+      <c r="G184" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4875</v>
+      </c>
+      <c r="G185" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9108</v>
+      </c>
+      <c r="G186" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F187" t="n">
+        <v>303599</v>
+      </c>
+      <c r="G187" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F188" t="n">
+        <v>129367</v>
+      </c>
+      <c r="G188" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F189" t="n">
+        <v>8159</v>
+      </c>
+      <c r="G189" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3892</v>
+      </c>
+      <c r="G190" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4216</v>
+      </c>
+      <c r="G191" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F192" t="n">
+        <v>31292</v>
+      </c>
+      <c r="G192" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F193" t="n">
+        <v>178756.551363921</v>
+      </c>
+      <c r="G193" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5489</v>
+      </c>
+      <c r="G194" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F195" t="n">
+        <v>4755</v>
+      </c>
+      <c r="G195" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F196" t="n">
+        <v>125000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F197" t="n">
+        <v>53507</v>
+      </c>
+      <c r="G197" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4682</v>
+      </c>
+      <c r="G198" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4244</v>
+      </c>
+      <c r="G199" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F200" t="n">
+        <v>81048</v>
+      </c>
+      <c r="G200" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F201" t="n">
+        <v>104408.4134</v>
+      </c>
+      <c r="G201" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4722</v>
+      </c>
+      <c r="G202" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4311</v>
+      </c>
+      <c r="G203" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10081</v>
+      </c>
+      <c r="G204" t="n">
+        <v>317795399.0672216</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="F205" t="n">
+        <v>33664</v>
+      </c>
+      <c r="G205" t="n">
+        <v>317829063.0672216</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="F206" t="n">
+        <v>653458</v>
+      </c>
+      <c r="G206" t="n">
+        <v>317175605.0672216</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.4823</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.4858</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="F207" t="n">
+        <v>200270</v>
+      </c>
+      <c r="G207" t="n">
+        <v>317375875.0672216</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="F208" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>317325875.0672216</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.4858</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="F209" t="n">
+        <v>125000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>317450875.0672216</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4158.945851348569</v>
+      </c>
+      <c r="G210" t="n">
+        <v>317446716.1213703</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="F211" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>317446716.1213703</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.4856</v>
+      </c>
+      <c r="F212" t="n">
+        <v>217857.5595</v>
+      </c>
+      <c r="G212" t="n">
+        <v>317228858.5618703</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="F213" t="n">
+        <v>121850</v>
+      </c>
+      <c r="G213" t="n">
+        <v>317107008.5618703</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.4721</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.4821</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.4721</v>
+      </c>
+      <c r="F214" t="n">
+        <v>128126.69</v>
+      </c>
+      <c r="G214" t="n">
+        <v>316978881.8718703</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3141.4162</v>
+      </c>
+      <c r="G215" t="n">
+        <v>316982023.2880703</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-22 BackTest OCN.xlsx
+++ b/BackTest/2020-01-22 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,22 +1639,15 @@
         <v>-1553234.699678349</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1794,22 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1836,22 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1878,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1950,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1986,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2022,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2056,18 +1903,21 @@
         <v>-1549561.729178349</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.4787</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2092,18 +1942,21 @@
         <v>-1537380.729178349</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,16 +1983,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2166,16 +2020,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2202,16 +2057,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2238,16 +2094,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,16 +2131,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2310,16 +2168,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2346,16 +2205,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2382,16 +2242,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,16 +2279,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2454,16 +2316,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,16 +2353,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2526,16 +2390,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2562,16 +2427,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2598,16 +2464,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2634,16 +2501,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2670,16 +2538,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,16 +2575,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2742,16 +2612,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2778,16 +2649,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2814,16 +2686,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,16 +2723,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2886,16 +2760,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2922,16 +2797,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +2834,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2994,16 +2871,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,16 +2908,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,16 +2945,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,16 +2982,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,16 +3019,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,16 +3056,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,16 +3093,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3246,16 +3130,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,16 +3167,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3318,16 +3204,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3354,16 +3241,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,16 +3278,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,16 +3315,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3462,16 +3352,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3498,16 +3389,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3534,16 +3426,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,16 +3463,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3606,16 +3500,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3642,16 +3537,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3678,16 +3574,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3714,16 +3611,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3750,16 +3648,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3786,16 +3685,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3822,16 +3722,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3858,16 +3759,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3894,16 +3796,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3930,16 +3833,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3966,16 +3870,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4002,16 +3907,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4038,16 +3944,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4074,16 +3981,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4110,16 +4018,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,16 +4055,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4182,16 +4092,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4218,16 +4129,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4254,16 +4166,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4290,16 +4203,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4326,16 +4240,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4362,16 +4277,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4398,16 +4314,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4434,16 +4351,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4468,18 +4386,21 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>0.4792</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4506,16 +4427,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4542,16 +4464,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4578,16 +4501,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4614,16 +4538,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4650,16 +4575,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4686,20 +4612,17 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,24 +4649,17 @@
       <c r="H120" t="n">
         <v>1</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4770,24 +4686,17 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4814,20 +4723,17 @@
       <c r="H122" t="n">
         <v>1</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4854,24 +4760,17 @@
       <c r="H123" t="n">
         <v>1</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.4709</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4896,26 +4795,19 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4942,16 +4834,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4978,16 +4871,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5014,16 +4908,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5050,16 +4945,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5086,16 +4982,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5120,18 +5017,21 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>0.4791</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5158,16 +5058,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5194,16 +5095,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5230,16 +5132,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5264,22 +5167,19 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5304,26 +5204,19 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5350,22 +5243,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5392,16 +5280,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5428,16 +5317,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5464,16 +5354,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5500,16 +5391,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5536,16 +5428,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5572,16 +5465,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5608,16 +5502,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5644,16 +5539,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5680,16 +5576,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5716,16 +5613,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5752,16 +5650,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5786,22 +5685,19 @@
         <v>318061393.0988216</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5828,22 +5724,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5870,22 +5761,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5912,16 +5798,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5948,16 +5835,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5984,16 +5872,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6020,16 +5909,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6056,16 +5946,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6092,16 +5983,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6128,16 +6020,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6164,16 +6057,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6200,16 +6094,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6236,16 +6131,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6272,16 +6168,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6308,16 +6205,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6344,16 +6242,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6380,16 +6279,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6416,16 +6316,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6452,16 +6353,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6488,16 +6390,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6524,16 +6427,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6560,16 +6464,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6596,16 +6501,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6632,16 +6538,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6668,16 +6575,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6704,16 +6612,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6740,16 +6649,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6776,16 +6686,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6812,16 +6723,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6848,16 +6760,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6884,16 +6797,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6918,18 +6832,21 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>0.4759</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6956,16 +6873,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6992,16 +6910,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7028,16 +6947,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7064,16 +6984,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7100,16 +7021,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7136,16 +7058,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7172,16 +7095,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7208,16 +7132,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7244,16 +7169,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7280,16 +7206,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7316,16 +7243,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7352,16 +7280,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7388,16 +7317,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7424,16 +7354,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7460,16 +7391,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7494,18 +7426,21 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>0.4759</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7530,18 +7465,21 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>0.4759</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7568,16 +7506,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7604,16 +7543,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7640,16 +7580,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7674,18 +7615,21 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>0.4759</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7710,18 +7654,21 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>0.4759</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7746,18 +7693,21 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>0.4759</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7782,18 +7732,21 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>0.4759</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7818,18 +7771,21 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>0.4759</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7856,16 +7812,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7892,16 +7849,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7928,16 +7886,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7964,16 +7923,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8000,16 +7960,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8036,16 +7997,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8070,18 +8032,17 @@
         <v>317446716.1213703</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8106,18 +8067,15 @@
         <v>317228858.5618703</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8142,18 +8100,15 @@
         <v>317107008.5618703</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8178,18 +8133,15 @@
         <v>316978881.8718703</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8216,18 +8168,15 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest OCN.xlsx
+++ b/BackTest/2020-01-22 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1507,10 +1507,14 @@
         <v>-1437457.761378349</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1540,11 +1544,19 @@
         <v>-1439545.444078349</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1585,19 @@
         <v>-1556757.699678349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1626,19 @@
         <v>-1564212.699678349</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1667,19 @@
         <v>-1553234.699678349</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1711,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1750,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1789,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1828,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1867,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1906,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1945,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,15 +1981,17 @@
         <v>-1549561.729178349</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0.4787</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1942,12 +2022,14 @@
         <v>-1537380.729178349</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0.47</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,10 +2063,14 @@
         <v>-1556075.729178349</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2021,7 +2107,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2058,7 +2146,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2095,7 +2185,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,7 +2224,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2169,7 +2263,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2206,7 +2302,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2243,7 +2341,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2280,7 +2380,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,7 +2419,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2354,7 +2458,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2391,7 +2497,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2428,7 +2536,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2465,7 +2575,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2502,7 +2614,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2539,7 +2653,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,7 +2692,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2613,7 +2731,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2650,7 +2770,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2687,7 +2809,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2724,7 +2848,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2761,7 +2887,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,7 +2926,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2835,7 +2965,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,7 +3004,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2909,7 +3043,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2946,7 +3082,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2983,7 +3121,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3020,7 +3160,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3057,7 +3199,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3094,7 +3238,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3131,7 +3277,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,7 +3316,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3205,7 +3355,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,7 +3394,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,7 +3433,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,7 +3472,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3353,7 +3511,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,7 +3550,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,7 +3589,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,7 +3628,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3501,7 +3667,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,7 +3706,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,7 +3745,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,7 +3784,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3649,7 +3823,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,7 +3862,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3723,7 +3901,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,7 +3940,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,7 +3979,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,7 +4018,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3871,7 +4057,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3908,7 +4096,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3945,7 +4135,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,7 +4174,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4019,7 +4213,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4056,7 +4252,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4093,7 +4291,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4130,7 +4330,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4167,7 +4369,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4204,7 +4408,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,7 +4447,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4278,7 +4486,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4315,7 +4525,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4352,7 +4564,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,12 +4600,12 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4428,7 +4642,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4465,7 +4681,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,7 +4720,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4539,7 +4759,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,7 +4798,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4612,8 +4836,12 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4649,8 +4877,12 @@
       <c r="H120" t="n">
         <v>1</v>
       </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,8 +4918,12 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4723,8 +4959,12 @@
       <c r="H122" t="n">
         <v>1</v>
       </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,8 +5000,12 @@
       <c r="H123" t="n">
         <v>1</v>
       </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>0.4709</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4798,7 +5042,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4835,7 +5081,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,7 +5120,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,7 +5159,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4946,7 +5198,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4983,7 +5237,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5017,12 +5273,12 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5059,7 +5315,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,7 +5354,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5133,7 +5393,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,7 +5432,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,7 +5471,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,7 +5510,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,7 +5549,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,7 +5588,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5355,7 +5627,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5392,7 +5666,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5429,7 +5705,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,7 +5744,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,7 +5783,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,7 +5822,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5577,7 +5861,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5614,7 +5900,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5651,7 +5939,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,7 +5978,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5725,7 +6017,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5759,17 +6053,19 @@
         <v>318057789.0988216</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>0.9943738259236067</v>
       </c>
       <c r="M150" t="inlineStr"/>
     </row>
@@ -5800,11 +6096,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5837,11 +6129,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5874,11 +6162,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5911,11 +6195,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5948,11 +6228,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5985,11 +6261,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6022,11 +6294,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6059,11 +6327,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6096,11 +6360,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6133,11 +6393,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6170,11 +6426,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6207,11 +6459,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6244,11 +6492,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6281,11 +6525,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6318,11 +6558,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6355,11 +6591,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6392,11 +6624,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6429,11 +6657,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6466,11 +6690,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6503,11 +6723,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6540,11 +6756,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6577,11 +6789,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6614,11 +6822,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6651,11 +6855,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6888,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6725,11 +6921,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6762,11 +6954,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6799,11 +6987,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6832,17 +7016,11 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6875,11 +7053,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6912,11 +7086,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6949,11 +7119,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6986,11 +7152,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7023,11 +7185,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7060,11 +7218,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7097,11 +7251,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7134,11 +7284,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7171,11 +7317,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7208,11 +7350,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7245,11 +7383,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7416,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7319,11 +7449,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7356,11 +7482,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7393,11 +7515,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7426,17 +7544,11 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7465,17 +7577,11 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7508,11 +7614,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7545,11 +7647,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7582,11 +7680,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7615,17 +7709,11 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7654,17 +7742,11 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7693,17 +7775,11 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7732,17 +7808,11 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7771,17 +7841,11 @@
         <v>317795399.0672216</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0.4759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7814,11 +7878,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7851,11 +7911,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7888,11 +7944,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7925,11 +7977,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7962,11 +8010,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7999,11 +8043,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8032,16 +8072,14 @@
         <v>317446716.1213703</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
       <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
@@ -8067,7 +8105,7 @@
         <v>317228858.5618703</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8100,7 +8138,7 @@
         <v>317107008.5618703</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8133,7 +8171,7 @@
         <v>316978881.8718703</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8177,6 +8215,6 @@
       <c r="M215" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest OCN.xlsx
+++ b/BackTest/2020-01-22 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1507,14 +1507,10 @@
         <v>-1437457.761378349</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.4791</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1544,772 +1540,648 @@
         <v>-1439545.444078349</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4789</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.4789</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4687</v>
+      </c>
+      <c r="F36" t="n">
+        <v>117212.2556</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1556757.699678349</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7455</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1564212.699678349</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4786</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.4786</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10978</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1553234.699678349</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3657</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1549577.699678349</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10677</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1560254.699678349</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9483</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1550771.699678349</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6844</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1557615.699678349</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4786</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.4786</v>
+      </c>
+      <c r="F43" t="n">
+        <v>15541</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1542074.699678349</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2088.5548</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1542074.699678349</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1057.0295</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1543131.729178349</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6430</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1549561.729178349</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12181</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1537380.729178349</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="F48" t="n">
+        <v>18695</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1556075.729178349</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F49" t="n">
+        <v>960052184</v>
+      </c>
+      <c r="G49" t="n">
+        <v>958496108.2708217</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F50" t="n">
+        <v>638639809.973</v>
+      </c>
+      <c r="G50" t="n">
+        <v>319856298.2978216</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="F51" t="n">
+        <v>81076.18459999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>319856298.2978216</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F52" t="n">
+        <v>93134.5273</v>
+      </c>
+      <c r="G52" t="n">
+        <v>319763163.7705216</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="F53" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>320263163.7705216</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="F54" t="n">
+        <v>75000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>320338163.7705216</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.4789</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.4789</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.4687</v>
-      </c>
-      <c r="F36" t="n">
-        <v>117212.2556</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-1556757.699678349</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F37" t="n">
-        <v>7455</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-1564212.699678349</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.4786</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.4786</v>
-      </c>
-      <c r="F38" t="n">
-        <v>10978</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-1553234.699678349</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3657</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-1549577.699678349</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="F40" t="n">
-        <v>10677</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-1560254.699678349</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="F41" t="n">
-        <v>9483</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-1550771.699678349</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="F42" t="n">
-        <v>6844</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-1557615.699678349</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.4786</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.4786</v>
-      </c>
-      <c r="F43" t="n">
-        <v>15541</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-1542074.699678349</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2088.5548</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-1542074.699678349</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1057.0295</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-1543131.729178349</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F46" t="n">
-        <v>6430</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-1549561.729178349</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F47" t="n">
-        <v>12181</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-1537380.729178349</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="F48" t="n">
-        <v>18695</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-1556075.729178349</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F49" t="n">
-        <v>960052184</v>
-      </c>
-      <c r="G49" t="n">
-        <v>958496108.2708217</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F50" t="n">
-        <v>638639809.973</v>
-      </c>
-      <c r="G50" t="n">
-        <v>319856298.2978216</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="F51" t="n">
-        <v>81076.18459999999</v>
-      </c>
-      <c r="G51" t="n">
-        <v>319856298.2978216</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F52" t="n">
-        <v>93134.5273</v>
-      </c>
-      <c r="G52" t="n">
-        <v>319763163.7705216</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="F53" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G53" t="n">
-        <v>320263163.7705216</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.4787</v>
-      </c>
-      <c r="F54" t="n">
-        <v>75000</v>
-      </c>
-      <c r="G54" t="n">
-        <v>320338163.7705216</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2342,11 +2214,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>0.4791</v>
+        <v>0.47</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2380,14 +2252,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2419,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2458,14 +2318,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2497,14 +2351,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2536,14 +2384,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2575,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2614,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2653,14 +2483,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2692,14 +2516,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2731,14 +2549,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2770,14 +2582,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2809,14 +2615,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2848,14 +2648,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2887,14 +2681,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2926,14 +2714,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2965,14 +2747,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3004,14 +2780,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3043,14 +2813,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3082,14 +2846,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3121,14 +2879,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3160,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3199,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3235,17 +2975,11 @@
         <v>316203658.2866216</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3277,14 +3011,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3316,14 +3044,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3355,14 +3077,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3391,17 +3107,11 @@
         <v>316203658.2866216</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3433,14 +3143,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3472,14 +3176,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3511,14 +3209,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3550,14 +3242,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3589,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3628,14 +3308,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3667,14 +3341,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3706,14 +3374,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3745,14 +3407,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3784,14 +3440,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3823,14 +3473,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3862,14 +3506,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3901,14 +3539,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3940,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3979,14 +3605,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4018,14 +3638,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4057,14 +3671,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4096,14 +3704,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4135,14 +3737,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4174,14 +3770,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4213,14 +3803,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4252,14 +3836,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4291,14 +3869,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4330,14 +3902,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4369,14 +3935,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4408,14 +3968,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4447,14 +4001,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4486,14 +4034,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4525,14 +4067,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4564,14 +4100,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4603,14 +4133,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4642,14 +4166,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4681,14 +4199,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4720,14 +4232,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4759,14 +4265,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4798,14 +4298,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4834,19 +4328,11 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4875,19 +4361,11 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4916,19 +4394,11 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4957,19 +4427,11 @@
         <v>318101380.3509216</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4998,19 +4460,11 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.4709</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5042,14 +4496,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5081,14 +4529,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5120,14 +4562,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5159,14 +4595,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5198,14 +4628,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5237,14 +4661,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5276,14 +4694,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5315,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5354,14 +4760,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5393,14 +4793,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5432,14 +4826,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5471,14 +4859,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5510,14 +4892,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5549,14 +4925,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5588,14 +4958,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5627,14 +4991,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5666,14 +5024,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5705,14 +5057,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5744,14 +5090,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5783,14 +5123,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5822,14 +5156,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5861,14 +5189,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5900,14 +5222,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5939,14 +5255,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5978,14 +5288,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6017,14 +5321,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6053,19 +5351,13 @@
         <v>318057789.0988216</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.4791</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.9943738259236067</v>
+        <v>1</v>
       </c>
       <c r="M150" t="inlineStr"/>
     </row>
@@ -8072,7 +7364,7 @@
         <v>317446716.1213703</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8105,7 +7397,7 @@
         <v>317228858.5618703</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8138,7 +7430,7 @@
         <v>317107008.5618703</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8215,6 +7507,6 @@
       <c r="M215" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest OCN.xlsx
+++ b/BackTest/2020-01-22 BackTest OCN.xlsx
@@ -1342,10 +1342,14 @@
         <v>-1433283.267478349</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.4792</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1375,11 +1379,19 @@
         <v>-1433283.267478349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1420,19 @@
         <v>-1433283.267478349</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,10 +1461,14 @@
         <v>-1433283.267478349</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4792</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1474,11 +1498,19 @@
         <v>-1437457.761378349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1539,19 @@
         <v>-1437457.761378349</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,10 +1580,14 @@
         <v>-1439545.444078349</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.4791</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1573,11 +1617,19 @@
         <v>-1556757.699678349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1658,19 @@
         <v>-1564212.699678349</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1699,19 @@
         <v>-1553234.699678349</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1743,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1821,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1860,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1899,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1938,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1977,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2013,19 @@
         <v>-1549561.729178349</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.4787</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2054,19 @@
         <v>-1537380.729178349</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2095,19 @@
         <v>-1556075.729178349</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2139,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2178,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2217,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2256,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,15 +2292,17 @@
         <v>320263163.7705216</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>0.4791</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2175,11 +2335,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>0.47</v>
+        <v>0.4791</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2214,11 +2374,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>0.47</v>
+        <v>0.4791</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2252,8 +2412,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2285,8 +2451,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2318,8 +2490,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2351,8 +2529,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2384,8 +2568,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2607,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2646,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2685,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2516,8 +2724,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2763,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2582,8 +2802,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +2841,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2648,8 +2880,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2681,8 +2919,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2714,8 +2958,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2747,8 +2997,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2780,8 +3036,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2813,8 +3075,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2846,8 +3114,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2879,8 +3153,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2912,8 +3192,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2945,8 +3231,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2975,11 +3267,17 @@
         <v>316203658.2866216</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3011,8 +3309,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3044,8 +3348,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3077,8 +3387,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3107,11 +3423,17 @@
         <v>316203658.2866216</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3143,8 +3465,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3176,8 +3504,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3209,8 +3543,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3242,8 +3582,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3275,8 +3621,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3308,8 +3660,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3341,8 +3699,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3374,8 +3738,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3407,8 +3777,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3440,8 +3816,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3473,8 +3855,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3506,8 +3894,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3539,8 +3933,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +3972,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3605,8 +4011,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3638,8 +4050,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3671,8 +4089,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3704,8 +4128,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3737,8 +4167,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3770,8 +4206,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3803,8 +4245,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3836,8 +4284,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3869,8 +4323,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3902,8 +4362,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3935,8 +4401,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3968,8 +4440,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4001,8 +4479,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4034,8 +4518,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4064,13 +4554,19 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.4791</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>0.995208724692131</v>
       </c>
       <c r="M111" t="inlineStr"/>
     </row>
@@ -4097,7 +4593,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4130,7 +4626,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4295,7 +4791,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4328,7 +4824,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4361,7 +4857,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4394,7 +4890,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4427,7 +4923,7 @@
         <v>318101380.3509216</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4460,7 +4956,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4493,7 +4989,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4526,7 +5022,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4559,7 +5055,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4592,7 +5088,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4625,7 +5121,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4691,7 +5187,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4757,7 +5253,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4823,7 +5319,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4856,7 +5352,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4889,7 +5385,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4922,7 +5418,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4955,7 +5451,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4988,7 +5484,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5021,7 +5517,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5054,7 +5550,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5153,7 +5649,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5219,7 +5715,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5252,7 +5748,7 @@
         <v>318053707.0988216</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -7199,7 +7695,7 @@
         <v>317175605.0672216</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7265,7 +7761,7 @@
         <v>317325875.0672216</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7364,7 +7860,7 @@
         <v>317446716.1213703</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7397,7 +7893,7 @@
         <v>317228858.5618703</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7430,7 +7926,7 @@
         <v>317107008.5618703</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
